--- a/Dissertacia/MyWork/DocWork/Data.xlsx
+++ b/Dissertacia/MyWork/DocWork/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MyWorks\trunk\Dissertacia\MyWork\Files\MatlabModeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Druzhinin_Vasily\Documents\My_Project\GAM\trunk\Dissertacia\MyWork\DocWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -40,12 +40,36 @@
   <si>
     <t>e-07</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>30 градусов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 градусов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 градусов </t>
+  </si>
+  <si>
+    <t>Эксперимент</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +77,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,12 +106,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -206,29 +245,38 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$4:$C$10</c:f>
+              <c:f>Лист1!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -236,30 +284,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$4:$D$10</c:f>
+              <c:f>Лист1!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.62</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.2000000000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>3.3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.97</c:v>
+                <c:pt idx="9">
+                  <c:v>4.9400000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -298,29 +355,38 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$4:$C$10</c:f>
+              <c:f>Лист1!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
@@ -328,29 +394,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$F$4:$F$10</c:f>
+              <c:f>Лист1!$F$4:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3.2300000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.29039999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.80659999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1.5809</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>2.0648</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>2.6133000000000002</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>3.2263000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -366,11 +432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296587416"/>
-        <c:axId val="296586632"/>
+        <c:axId val="588581552"/>
+        <c:axId val="588563056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296587416"/>
+        <c:axId val="588581552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,12 +550,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296586632"/>
+        <c:crossAx val="588563056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296586632"/>
+        <c:axId val="588563056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +673,3749 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296587416"/>
+        <c:crossAx val="588581552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Смещение в зависимотси от скорости</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27229359191837355"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Смещение</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1500</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.2300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5809</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6133000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2263000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1300</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$34:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.7961489657329801E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.251653406915958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69903724143317003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37011299320894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7895353380691099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2648806622436002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7961489657326801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>1100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$34:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.36597220177386E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21293749815964899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59149305044345701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1593263788691801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5142222091352699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.91643748343686</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3659722017738298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>1000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$34:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.1508838197946301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19357954378151099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53772095494861105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0539330716994399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3765656446685599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.74221589403343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1508838197944402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>900</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$34:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.9357954378152301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.174221589403355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48394885945375399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94853976452931898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23890908020174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5679943046300799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9357954378150199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="149259600"/>
+        <c:axId val="149247632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="149259600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Скорость, мм/с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149247632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149247632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Смещение,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149259600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Смещение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> иглы в зависимости от угла острия</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>30 градусов</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$49:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$49:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.58750064700933E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10350002588037301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23287505823082999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41400010352149302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64687516175232795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93150023292332096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.26787531703461</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6560004140859701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.09587552407752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.58750064700931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>45  градусов</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$64:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$64:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6592785075420499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.146371140301682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32933506567877602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58548456120672798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91481962688549701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3173402627151101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.79304646869567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3419382448269102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9640155911088701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6592785075419898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>60 градусов</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$81:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$81:$D$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4816825850438897E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17926730340175601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40335143265391998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71706921360702203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1204206462609301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6134057306156799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1960244666714601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8682768544280899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.63016289388512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4816825850436999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="588590800"/>
+        <c:axId val="588615280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="588590800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Скорость, мм/с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588615280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="588615280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Смещение,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588590800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Смещение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> иглы в зависимости от плотности материала</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1500 кг/м3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$64:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$64:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6592785075420499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.146371140301682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32933506567877602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58548456120672798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91481962688549701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3173402627151101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.79304646869567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3419382448269102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9640155911088701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6592785075419898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1100 кг/м3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$64:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$64:$F$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.6834709055307701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.107338836221231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.241512381497759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.429355344884924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67086772638273295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.966049525991035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3149007437100699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.71742137953969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.17361143347987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.68347090553093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>900 кг/м3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$64:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$64:$H$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.1955671045252201E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7822684181008998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19760103940725701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35129073672403599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54889177613131901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79040415762902905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0758278812174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.40516294689614</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.77840935466551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.19556710452528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="149258512"/>
+        <c:axId val="149265040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="149258512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Скорость, мм/с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149265040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149265040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Смещение,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149258512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Смещение в зависимотси от скорости</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Эксперимент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Модель </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$64:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$64:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6592785075420499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.146371140301682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32933506567877602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58548456120672798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91481962688549701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3173402627151101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.79304646869567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3419382448269102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9640155911088701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6592785075419898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="149253616"/>
+        <c:axId val="149261232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="149253616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Скорость, мм/с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149261232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="149261232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Смещение,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="149253616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Погрешность</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40876215840666974"/>
+          <c:y val="2.6070763500931099E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$96:$C$105</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$96:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$96:$F$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.3407214924579514E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3628859698318008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9335065678776027E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19548456120672797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29481962688549701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38734026271511002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35304646869567002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14193824482690998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33598440889112968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2807214924580106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="583071776"/>
+        <c:axId val="583081024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="583071776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Скорость, мм/с</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583081024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="583081024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Смещение,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> мм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583071776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -696,6 +4504,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1212,20 +5220,2600 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1239,6 +7827,166 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1510,176 +8258,1251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H10"/>
+  <dimension ref="B2:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.82</v>
       </c>
-      <c r="G3" s="1">
-        <v>1.1499999999999999</v>
-      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H4" s="1">
         <v>3.33</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="1">
         <v>0.24</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="1">
         <v>0.29039999999999999</v>
       </c>
-      <c r="G5">
+      <c r="H6" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.80659999999999998</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.5809</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.0648</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.6133000000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.71</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.2263000000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D33" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D34" s="1">
+        <v>3.2263257296914198E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.7961489657329801E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.36597220177386E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2.1508838197946301E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.9357954378152301E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D35" s="1">
+        <v>0.29036931567225399</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.251653406915958</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.21293749815964899</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.19357954378151099</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.174221589403355</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D36" s="1">
+        <v>0.80658143242296798</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.69903724143317003</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.59149305044345701</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.53772095494861105</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.48394885945375399</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D37" s="1">
+        <v>1.5808996075489301</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.37011299320894</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.1593263788691801</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.0539330716994399</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.94853976452931898</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D38" s="1">
+        <v>2.06484846700251</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.7895353380691099</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.5142222091352699</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.3765656446685599</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.23890908020174</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D39" s="1">
+        <v>2.6133238410502702</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.2648806622436002</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.91643748343686</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.74221589403343</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.5679943046300799</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D40" s="1">
+        <v>3.2263257296918701</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2.7961489657326801</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.3659722017738298</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2.1508838197944402</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.9357954378150199</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="3"/>
+      <c r="D48" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2.58750064700933E-2</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2.2425005607413E-2</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1.89750047447333E-2</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1.7250004313394299E-2</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1.55250038820542E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="1">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.10350002588037301</v>
+      </c>
+      <c r="E50" s="5">
+        <v>8.9700022429651805E-2</v>
+      </c>
+      <c r="F50" s="5">
+        <v>7.5900018978933198E-2</v>
+      </c>
+      <c r="G50" s="5">
+        <v>6.9000017253577406E-2</v>
+      </c>
+      <c r="H50" s="5">
+        <v>6.2100015528216798E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="1">
+        <v>9</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.23287505823082999</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.20182505046670901</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.17077504270260699</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.15525003882056801</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.13972503493848701</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="1">
+        <v>12</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.41400010352149302</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.358800089718607</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.30360007591573301</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.27600006901430901</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.248400062112867</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="1">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D53" s="5">
+        <v>0.64687516175232795</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.56062514018531595</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.47437511861834403</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.43125010783488699</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.38812509705140003</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="1">
+        <v>18</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.93150023292332096</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.80730020186683704</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.68310017081042895</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.62100015528227104</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.55890013975395003</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="1">
+        <v>21</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1.26787531703461</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1.0988252747631699</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.92977523249194205</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.84525021135633505</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.76072519022066398</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="1">
+        <v>24</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1.6560004140859701</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1.43520035887443</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1.2144003036629301</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1.10400027605724</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.99360024845146899</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="1">
+        <v>27</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2.09587552407752</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1.81642545420058</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1.5369753843235801</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1.39725034938491</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1.25752531444647</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="1">
+        <v>30</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2.58750064700931</v>
+      </c>
+      <c r="E58" s="5">
+        <v>2.24250056074127</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1.8975004744733699</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1.7250004313395499</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1.5525003882056001</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="3"/>
+      <c r="D63" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H63" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3.6592785075420499E-2</v>
+      </c>
+      <c r="E64" s="5">
+        <v>3.1713747065363201E-2</v>
+      </c>
+      <c r="F64" s="5">
+        <v>2.6834709055307701E-2</v>
+      </c>
+      <c r="G64" s="5">
+        <v>2.4395190050280902E-2</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2.1955671045252201E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C65" s="1">
+        <v>6</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0.146371140301682</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.126854988261453</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.107338836221231</v>
+      </c>
+      <c r="G65" s="5">
+        <v>9.7580760201123398E-2</v>
+      </c>
+      <c r="H65" s="5">
+        <v>8.7822684181008998E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C66" s="1">
+        <v>9</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.32933506567877602</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0.28542372358828999</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.241512381497759</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.21955671045251299</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0.19760103940725701</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="1">
+        <v>12</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.58548456120672798</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.507419953045811</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.429355344884924</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.39032304080449398</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0.35129073672403599</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C68" s="1">
+        <v>15</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.91481962688549701</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.79284367663409605</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.67086772638273295</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.60987975125702298</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0.54889177613131901</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C69" s="1">
+        <v>18</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1.3173402627151101</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1.14169489435316</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.966049525991035</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.87822684181005195</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0.79040415762902905</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C70" s="1">
+        <v>21</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1.79304646869567</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1.55397360620281</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1.3149007437100699</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1.1953643124637601</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1.0758278812174</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C71" s="1">
+        <v>24</v>
+      </c>
+      <c r="D71" s="5">
+        <v>2.3419382448269102</v>
+      </c>
+      <c r="E71" s="5">
+        <v>2.0296798121832502</v>
+      </c>
+      <c r="F71" s="5">
+        <v>1.71742137953969</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1.5612921632179799</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1.40516294689614</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="1">
+        <v>27</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2.9640155911088701</v>
+      </c>
+      <c r="E72" s="5">
+        <v>2.56881351229443</v>
+      </c>
+      <c r="F72" s="5">
+        <v>2.17361143347987</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1.9760103940726801</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1.77840935466551</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C73" s="1">
+        <v>30</v>
+      </c>
+      <c r="D73" s="5">
+        <v>3.6592785075419898</v>
+      </c>
+      <c r="E73" s="5">
+        <v>3.1713747065363802</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2.68347090553093</v>
+      </c>
+      <c r="G73" s="5">
+        <v>2.4395190050280902</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2.19556710452528</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="3"/>
+      <c r="D80" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H80" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="5">
+        <v>4.4816825850438897E-2</v>
+      </c>
+      <c r="E81" s="5">
+        <v>3.8841249070378003E-2</v>
+      </c>
+      <c r="F81" s="5">
+        <v>3.2865672290319801E-2</v>
+      </c>
+      <c r="G81" s="5">
+        <v>2.9877883900292699E-2</v>
+      </c>
+      <c r="H81" s="5">
+        <v>2.6890095510261201E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82" s="1">
+        <v>6</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.17926730340175601</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.15536499628151201</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.13146268916127901</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.119511535601171</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0.107560382041045</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83" s="1">
+        <v>9</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0.40335143265391998</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.34957124163340703</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.29579105061288902</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.26890095510260997</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0.24201085959235299</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C84" s="1">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0.71706921360702203</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.62145998512604905</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.52585075664511705</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.47804614240468302</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0.43024152816417899</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85" s="1">
+        <v>15</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1.1204206462609301</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0.97103122675956299</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.82164180725807401</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0.74694709750727795</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0.67225238775650598</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" s="1">
+        <v>18</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1.6134057306156799</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1.3982849665336301</v>
+      </c>
+      <c r="F86" s="5">
+        <v>1.1831642024515501</v>
+      </c>
+      <c r="G86" s="5">
+        <v>1.0756038204104399</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0.96804343836941398</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C87" s="1">
+        <v>21</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2.1960244666714601</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1.90322120444845</v>
+      </c>
+      <c r="F87" s="5">
+        <v>1.6104179422256599</v>
+      </c>
+      <c r="G87" s="5">
+        <v>1.4640163111142499</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1.3176146800028099</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" s="1">
+        <v>24</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2.8682768544280899</v>
+      </c>
+      <c r="E88" s="5">
+        <v>2.48583994050419</v>
+      </c>
+      <c r="F88" s="5">
+        <v>2.10340302658047</v>
+      </c>
+      <c r="G88" s="5">
+        <v>1.9121845696187301</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1.72096611265671</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89" s="1">
+        <v>27</v>
+      </c>
+      <c r="D89" s="5">
+        <v>3.63016289388512</v>
+      </c>
+      <c r="E89" s="5">
+        <v>3.1461411747007801</v>
+      </c>
+      <c r="F89" s="5">
+        <v>2.6621194555159402</v>
+      </c>
+      <c r="G89" s="5">
+        <v>2.4201085959237898</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2.1780977363312202</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C90" s="1">
+        <v>30</v>
+      </c>
+      <c r="D90" s="5">
+        <v>4.4816825850436999</v>
+      </c>
+      <c r="E90" s="5">
+        <v>3.8841249070382502</v>
+      </c>
+      <c r="F90" s="5">
+        <v>3.2865672290323</v>
+      </c>
+      <c r="G90" s="5">
+        <v>2.98778839002911</v>
+      </c>
+      <c r="H90" s="5">
+        <v>2.6890095510260199</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" s="3"/>
+      <c r="D95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E96" s="5">
+        <v>3.6592785075420499E-2</v>
+      </c>
+      <c r="F96" s="5">
+        <f>D96-E96</f>
+        <v>6.3407214924579514E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C97" s="1">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0.146371140301682</v>
+      </c>
+      <c r="F97" s="5">
+        <f t="shared" ref="F97:F105" si="0">D97-E97</f>
+        <v>1.3628859698318008E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98" s="1">
+        <v>9</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0.32933506567877602</v>
+      </c>
+      <c r="F98" s="5">
+        <f>-1*(D98-E98)</f>
+        <v>8.9335065678776027E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C99" s="1">
+        <v>12</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0.58548456120672798</v>
+      </c>
+      <c r="F99" s="5">
+        <f t="shared" ref="F99:F103" si="1">-1*(D99-E99)</f>
+        <v>0.19548456120672797</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C100" s="1">
+        <v>15</v>
+      </c>
+      <c r="D100" s="1">
         <v>0.62</v>
       </c>
-      <c r="F6">
-        <v>0.80659999999999998</v>
-      </c>
-      <c r="G6">
-        <v>6.67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
+      <c r="E100" s="5">
+        <v>0.91481962688549701</v>
+      </c>
+      <c r="F100" s="5">
+        <f t="shared" si="1"/>
+        <v>0.29481962688549701</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C101" s="1">
+        <v>18</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1.3173402627151101</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" si="1"/>
+        <v>0.38734026271511002</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C102" s="1">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>1.46</v>
-      </c>
-      <c r="F7">
-        <v>1.5809</v>
-      </c>
-      <c r="G7">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
+      <c r="D102" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1.79304646869567</v>
+      </c>
+      <c r="F102" s="5">
+        <f t="shared" si="1"/>
+        <v>0.35304646869567002</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C103" s="1">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="D103" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F8">
-        <v>2.0648</v>
-      </c>
-      <c r="G8">
-        <v>4.17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4</v>
+      <c r="E103" s="5">
+        <v>2.3419382448269102</v>
+      </c>
+      <c r="F103" s="5">
+        <f t="shared" si="1"/>
+        <v>0.14193824482690998</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C104" s="1">
         <v>27</v>
       </c>
-      <c r="D9">
+      <c r="D104" s="1">
         <v>3.3</v>
       </c>
-      <c r="F9">
-        <v>2.6133000000000002</v>
-      </c>
-      <c r="G9">
-        <v>3.71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4</v>
+      <c r="E104" s="5">
+        <v>2.9640155911088701</v>
+      </c>
+      <c r="F104" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33598440889112968</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C105" s="1">
         <v>30</v>
       </c>
-      <c r="D10">
-        <v>4.97</v>
-      </c>
-      <c r="F10">
-        <v>3.2263000000000002</v>
-      </c>
-      <c r="G10">
-        <v>3.34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
+      <c r="D105" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E105" s="5">
+        <v>3.6592785075419898</v>
+      </c>
+      <c r="F105" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2807214924580106</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:H79"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Dissertacia/MyWork/DocWork/Data.xlsx
+++ b/Dissertacia/MyWork/DocWork/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Druzhinin_Vasily\Documents\My_Project\GAM\trunk\Dissertacia\MyWork\DocWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MyWorks\trunk\Dissertacia\MyWork\DocWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -112,11 +112,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -322,6 +322,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E30-4F36-A866-B0C4EC379E13}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -423,6 +428,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E30-4F36-A866-B0C4EC379E13}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -723,1003 +733,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Смещение в зависимотси от скорости</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.27229359191837355"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Смещение</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$D$4:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.9400000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>1500</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$F$4:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3.2300000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80659999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5809</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0648</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6133000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2263000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>1300</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$E$34:$E$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.7961489657329801E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.251653406915958</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69903724143317003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.37011299320894</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7895353380691099</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2648806622436002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7961489657326801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>1100</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$F$34:$F$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.36597220177386E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21293749815964899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59149305044345701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1593263788691801</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5142222091352699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.91643748343686</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3659722017738298</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>1000</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$G$34:$G$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.1508838197946301E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19357954378151099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53772095494861105</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0539330716994399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3765656446685599</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.74221589403343</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1508838197944402</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>900</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$C$4:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$H$34:$H$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.9357954378152301E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.174221589403355</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.48394885945375399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.94853976452931898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.23890908020174</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5679943046300799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9357954378150199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="149259600"/>
-        <c:axId val="149247632"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="149259600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t>Скорость, мм/с</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="149247632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="149247632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Смещение,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> мм</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="149259600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1908,6 +922,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-911F-4C4E-8EC9-C01EF7D216F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2018,6 +1037,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-911F-4C4E-8EC9-C01EF7D216F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2128,6 +1152,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-911F-4C4E-8EC9-C01EF7D216F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2487,8 +1516,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2677,6 +1706,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6BD-409D-9034-88FAE166C881}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2787,6 +1821,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6BD-409D-9034-88FAE166C881}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2897,6 +1936,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6BD-409D-9034-88FAE166C881}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3256,8 +2300,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3441,6 +2485,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3613-46D3-9E4D-A8350ACFFD61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3551,6 +2600,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3613-46D3-9E4D-A8350ACFFD61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3910,8 +2964,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4101,7 +3155,7 @@
             <c:numRef>
               <c:f>Лист1!$F$96:$F$105</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6.3407214924579514E-2</c:v>
@@ -4137,6 +3191,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B867-47A6-A156-8991270A7DB0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4378,6 +3437,370 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583071776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Up</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$K$4:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F2B-4F19-999E-04AAB2191045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Down</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$L$4:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F2B-4F19-999E-04AAB2191045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="450000640"/>
+        <c:axId val="449999328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="450000640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4415,7 +3838,69 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583071776"/>
+        <c:crossAx val="449999328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="449999328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450000640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7835,38 +7320,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -7890,7 +7343,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7922,7 +7375,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7954,7 +7407,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7979,6 +7432,36 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8258,10 +7741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I105"/>
+  <dimension ref="B2:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -8274,7 +7757,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F2" s="1">
         <v>1500</v>
       </c>
@@ -8282,7 +7765,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8295,12 +7778,12 @@
       <c r="F3" s="2">
         <v>0.82</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -8310,6 +7793,9 @@
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
+      <c r="E4" s="1">
+        <v>0.1</v>
+      </c>
       <c r="F4" s="1">
         <v>3.2300000000000002E-2</v>
       </c>
@@ -8319,11 +7805,17 @@
       <c r="H4" s="1">
         <v>3.33</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="K4" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -8333,9 +7825,15 @@
       <c r="D5" s="1">
         <v>0.16</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="K5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -8354,8 +7852,14 @@
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K6" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -8365,8 +7869,14 @@
       <c r="D7" s="1">
         <v>0.39</v>
       </c>
+      <c r="K7" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -8385,8 +7895,14 @@
       <c r="I8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -8396,8 +7912,14 @@
       <c r="D9" s="1">
         <v>0.93</v>
       </c>
+      <c r="K9" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.95</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -8416,8 +7938,14 @@
       <c r="I10" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="K10" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.46</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -8436,8 +7964,14 @@
       <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="K11" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -8456,8 +7990,14 @@
       <c r="I12" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="K12" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3.32</v>
+      </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -8475,6 +8015,12 @@
       </c>
       <c r="I13" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
@@ -8619,19 +8165,19 @@
       </c>
     </row>
     <row r="47" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="3"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="1">
         <v>1500</v>
       </c>
@@ -8652,19 +8198,19 @@
       <c r="C49" s="1">
         <v>3</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>2.58750064700933E-2</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>2.2425005607413E-2</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>1.89750047447333E-2</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>1.7250004313394299E-2</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <v>1.55250038820542E-2</v>
       </c>
     </row>
@@ -8672,19 +8218,19 @@
       <c r="C50" s="1">
         <v>6</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>0.10350002588037301</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>8.9700022429651805E-2</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>7.5900018978933198E-2</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>6.9000017253577406E-2</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="4">
         <v>6.2100015528216798E-2</v>
       </c>
     </row>
@@ -8692,19 +8238,19 @@
       <c r="C51" s="1">
         <v>9</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>0.23287505823082999</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>0.20182505046670901</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <v>0.17077504270260699</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>0.15525003882056801</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="4">
         <v>0.13972503493848701</v>
       </c>
     </row>
@@ -8712,19 +8258,19 @@
       <c r="C52" s="1">
         <v>12</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>0.41400010352149302</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>0.358800089718607</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <v>0.30360007591573301</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="4">
         <v>0.27600006901430901</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="4">
         <v>0.248400062112867</v>
       </c>
     </row>
@@ -8732,19 +8278,19 @@
       <c r="C53" s="1">
         <v>15</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>0.64687516175232795</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>0.56062514018531595</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="4">
         <v>0.47437511861834403</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <v>0.43125010783488699</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <v>0.38812509705140003</v>
       </c>
     </row>
@@ -8752,19 +8298,19 @@
       <c r="C54" s="1">
         <v>18</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>0.93150023292332096</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>0.80730020186683704</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>0.68310017081042895</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <v>0.62100015528227104</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="4">
         <v>0.55890013975395003</v>
       </c>
     </row>
@@ -8772,19 +8318,19 @@
       <c r="C55" s="1">
         <v>21</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>1.26787531703461</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>1.0988252747631699</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>0.92977523249194205</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <v>0.84525021135633505</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="4">
         <v>0.76072519022066398</v>
       </c>
     </row>
@@ -8792,19 +8338,19 @@
       <c r="C56" s="1">
         <v>24</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>1.6560004140859701</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>1.43520035887443</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>1.2144003036629301</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <v>1.10400027605724</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="4">
         <v>0.99360024845146899</v>
       </c>
     </row>
@@ -8812,19 +8358,19 @@
       <c r="C57" s="1">
         <v>27</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>2.09587552407752</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>1.81642545420058</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <v>1.5369753843235801</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <v>1.39725034938491</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <v>1.25752531444647</v>
       </c>
     </row>
@@ -8832,19 +8378,19 @@
       <c r="C58" s="1">
         <v>30</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>2.58750064700931</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>2.24250056074127</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <v>1.8975004744733699</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="4">
         <v>1.7250004313395499</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="4">
         <v>1.5525003882056001</v>
       </c>
     </row>
@@ -8854,19 +8400,19 @@
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C63" s="3"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="1">
         <v>1500</v>
       </c>
@@ -8887,19 +8433,19 @@
       <c r="C64" s="1">
         <v>3</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>3.6592785075420499E-2</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>3.1713747065363201E-2</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <v>2.6834709055307701E-2</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="4">
         <v>2.4395190050280902E-2</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="4">
         <v>2.1955671045252201E-2</v>
       </c>
     </row>
@@ -8907,19 +8453,19 @@
       <c r="C65" s="1">
         <v>6</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>0.146371140301682</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>0.126854988261453</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <v>0.107338836221231</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="4">
         <v>9.7580760201123398E-2</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <v>8.7822684181008998E-2</v>
       </c>
     </row>
@@ -8927,19 +8473,19 @@
       <c r="C66" s="1">
         <v>9</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>0.32933506567877602</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>0.28542372358828999</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <v>0.241512381497759</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="4">
         <v>0.21955671045251299</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="4">
         <v>0.19760103940725701</v>
       </c>
     </row>
@@ -8947,19 +8493,19 @@
       <c r="C67" s="1">
         <v>12</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>0.58548456120672798</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <v>0.507419953045811</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="4">
         <v>0.429355344884924</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="4">
         <v>0.39032304080449398</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="4">
         <v>0.35129073672403599</v>
       </c>
     </row>
@@ -8967,19 +8513,19 @@
       <c r="C68" s="1">
         <v>15</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>0.91481962688549701</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <v>0.79284367663409605</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <v>0.67086772638273295</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="4">
         <v>0.60987975125702298</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="4">
         <v>0.54889177613131901</v>
       </c>
     </row>
@@ -8987,19 +8533,19 @@
       <c r="C69" s="1">
         <v>18</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>1.3173402627151101</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>1.14169489435316</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <v>0.966049525991035</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <v>0.87822684181005195</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="4">
         <v>0.79040415762902905</v>
       </c>
     </row>
@@ -9007,19 +8553,19 @@
       <c r="C70" s="1">
         <v>21</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>1.79304646869567</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>1.55397360620281</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <v>1.3149007437100699</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="4">
         <v>1.1953643124637601</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="4">
         <v>1.0758278812174</v>
       </c>
     </row>
@@ -9027,19 +8573,19 @@
       <c r="C71" s="1">
         <v>24</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>2.3419382448269102</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>2.0296798121832502</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="4">
         <v>1.71742137953969</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="4">
         <v>1.5612921632179799</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="4">
         <v>1.40516294689614</v>
       </c>
     </row>
@@ -9047,19 +8593,19 @@
       <c r="C72" s="1">
         <v>27</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>2.9640155911088701</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>2.56881351229443</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <v>2.17361143347987</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="4">
         <v>1.9760103940726801</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="4">
         <v>1.77840935466551</v>
       </c>
     </row>
@@ -9067,19 +8613,19 @@
       <c r="C73" s="1">
         <v>30</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>3.6592785075419898</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="4">
         <v>3.1713747065363802</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="4">
         <v>2.68347090553093</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="4">
         <v>2.4395190050280902</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="4">
         <v>2.19556710452528</v>
       </c>
     </row>
@@ -9089,19 +8635,19 @@
       </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="3"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="1">
         <v>1500</v>
       </c>
@@ -9122,19 +8668,19 @@
       <c r="C81" s="1">
         <v>3</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>4.4816825850438897E-2</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>3.8841249070378003E-2</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="4">
         <v>3.2865672290319801E-2</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="4">
         <v>2.9877883900292699E-2</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="4">
         <v>2.6890095510261201E-2</v>
       </c>
     </row>
@@ -9142,19 +8688,19 @@
       <c r="C82" s="1">
         <v>6</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>0.17926730340175601</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>0.15536499628151201</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="4">
         <v>0.13146268916127901</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="4">
         <v>0.119511535601171</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="4">
         <v>0.107560382041045</v>
       </c>
     </row>
@@ -9162,19 +8708,19 @@
       <c r="C83" s="1">
         <v>9</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>0.40335143265391998</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4">
         <v>0.34957124163340703</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <v>0.29579105061288902</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="4">
         <v>0.26890095510260997</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="4">
         <v>0.24201085959235299</v>
       </c>
     </row>
@@ -9182,19 +8728,19 @@
       <c r="C84" s="1">
         <v>12</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>0.71706921360702203</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4">
         <v>0.62145998512604905</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="4">
         <v>0.52585075664511705</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="4">
         <v>0.47804614240468302</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="4">
         <v>0.43024152816417899</v>
       </c>
     </row>
@@ -9202,19 +8748,19 @@
       <c r="C85" s="1">
         <v>15</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>1.1204206462609301</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="4">
         <v>0.97103122675956299</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <v>0.82164180725807401</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="4">
         <v>0.74694709750727795</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="4">
         <v>0.67225238775650598</v>
       </c>
     </row>
@@ -9222,19 +8768,19 @@
       <c r="C86" s="1">
         <v>18</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>1.6134057306156799</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>1.3982849665336301</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <v>1.1831642024515501</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="4">
         <v>1.0756038204104399</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="4">
         <v>0.96804343836941398</v>
       </c>
     </row>
@@ -9242,19 +8788,19 @@
       <c r="C87" s="1">
         <v>21</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>2.1960244666714601</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="4">
         <v>1.90322120444845</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="4">
         <v>1.6104179422256599</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="4">
         <v>1.4640163111142499</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="4">
         <v>1.3176146800028099</v>
       </c>
     </row>
@@ -9262,19 +8808,19 @@
       <c r="C88" s="1">
         <v>24</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>2.8682768544280899</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="4">
         <v>2.48583994050419</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="4">
         <v>2.10340302658047</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="4">
         <v>1.9121845696187301</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="4">
         <v>1.72096611265671</v>
       </c>
     </row>
@@ -9282,19 +8828,19 @@
       <c r="C89" s="1">
         <v>27</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>3.63016289388512</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="4">
         <v>3.1461411747007801</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="4">
         <v>2.6621194555159402</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="4">
         <v>2.4201085959237898</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="4">
         <v>2.1780977363312202</v>
       </c>
     </row>
@@ -9302,36 +8848,36 @@
       <c r="C90" s="1">
         <v>30</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>4.4816825850436999</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <v>3.8841249070382502</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="4">
         <v>3.2865672290323</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="4">
         <v>2.98778839002911</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="4">
         <v>2.6890095510260199</v>
       </c>
     </row>
     <row r="94" spans="3:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="3"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="3"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="1" t="s">
         <v>9</v>
       </c>
@@ -9347,10 +8893,10 @@
       <c r="D96" s="1">
         <v>0.1</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="4">
         <v>3.6592785075420499E-2</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="4">
         <f>D96-E96</f>
         <v>6.3407214924579514E-2</v>
       </c>
@@ -9362,10 +8908,10 @@
       <c r="D97" s="1">
         <v>0.16</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <v>0.146371140301682</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="4">
         <f t="shared" ref="F97:F105" si="0">D97-E97</f>
         <v>1.3628859698318008E-2</v>
       </c>
@@ -9377,10 +8923,10 @@
       <c r="D98" s="1">
         <v>0.24</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="4">
         <v>0.32933506567877602</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="4">
         <f>-1*(D98-E98)</f>
         <v>8.9335065678776027E-2</v>
       </c>
@@ -9392,10 +8938,10 @@
       <c r="D99" s="1">
         <v>0.39</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="4">
         <v>0.58548456120672798</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="4">
         <f t="shared" ref="F99:F103" si="1">-1*(D99-E99)</f>
         <v>0.19548456120672797</v>
       </c>
@@ -9407,10 +8953,10 @@
       <c r="D100" s="1">
         <v>0.62</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="4">
         <v>0.91481962688549701</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="4">
         <f t="shared" si="1"/>
         <v>0.29481962688549701</v>
       </c>
@@ -9422,10 +8968,10 @@
       <c r="D101" s="1">
         <v>0.93</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="4">
         <v>1.3173402627151101</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="4">
         <f t="shared" si="1"/>
         <v>0.38734026271511002</v>
       </c>
@@ -9437,10 +8983,10 @@
       <c r="D102" s="1">
         <v>1.44</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="4">
         <v>1.79304646869567</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="4">
         <f t="shared" si="1"/>
         <v>0.35304646869567002</v>
       </c>
@@ -9452,10 +8998,10 @@
       <c r="D103" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="4">
         <v>2.3419382448269102</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="4">
         <f t="shared" si="1"/>
         <v>0.14193824482690998</v>
       </c>
@@ -9467,10 +9013,10 @@
       <c r="D104" s="1">
         <v>3.3</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="4">
         <v>2.9640155911088701</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="4">
         <f t="shared" si="0"/>
         <v>0.33598440889112968</v>
       </c>
@@ -9482,10 +9028,10 @@
       <c r="D105" s="1">
         <v>4.9400000000000004</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="4">
         <v>3.6592785075419898</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="4">
         <f t="shared" si="0"/>
         <v>1.2807214924580106</v>
       </c>

--- a/Dissertacia/MyWork/DocWork/Data.xlsx
+++ b/Dissertacia/MyWork/DocWork/Data.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MyWorks\trunk\Dissertacia\MyWork\DocWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Druzhinin_Vasily\Documents\My_Project\GAM\trunk\Dissertacia\MyWork\DocWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>№</t>
   </si>
@@ -61,11 +63,32 @@
   <si>
     <t>Ошибка</t>
   </si>
+  <si>
+    <t>отклонение</t>
+  </si>
+  <si>
+    <t>Скорость</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>Частные отклонения</t>
+  </si>
+  <si>
+    <t>абс погр</t>
+  </si>
+  <si>
+    <t>погрешность прибора</t>
+  </si>
+  <si>
+    <t>Суммарная погрешность</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -106,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -114,11 +137,26 @@
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -138,7 +176,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -177,7 +215,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -322,7 +359,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7E30-4F36-A866-B0C4EC379E13}"/>
             </c:ext>
@@ -428,7 +465,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7E30-4F36-A866-B0C4EC379E13}"/>
             </c:ext>
@@ -442,11 +479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="588581552"/>
-        <c:axId val="588563056"/>
+        <c:axId val="-216590576"/>
+        <c:axId val="-216587312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="588581552"/>
+        <c:axId val="-216590576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,7 +530,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -560,12 +596,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588563056"/>
+        <c:crossAx val="-216587312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588563056"/>
+        <c:axId val="-216587312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +652,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -683,7 +718,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588581552"/>
+        <c:crossAx val="-216590576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -733,7 +768,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -777,7 +812,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -922,7 +956,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-911F-4C4E-8EC9-C01EF7D216F7}"/>
             </c:ext>
@@ -1037,7 +1071,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-911F-4C4E-8EC9-C01EF7D216F7}"/>
             </c:ext>
@@ -1152,7 +1186,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-911F-4C4E-8EC9-C01EF7D216F7}"/>
             </c:ext>
@@ -1166,11 +1200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="588590800"/>
-        <c:axId val="588615280"/>
+        <c:axId val="-216581872"/>
+        <c:axId val="-216571536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="588590800"/>
+        <c:axId val="-216581872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1265,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1298,12 +1331,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588615280"/>
+        <c:crossAx val="-216571536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588615280"/>
+        <c:axId val="-216571536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1401,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1435,7 +1467,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588590800"/>
+        <c:crossAx val="-216581872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1449,7 +1481,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1517,7 +1548,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1561,7 +1592,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1706,7 +1736,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D6BD-409D-9034-88FAE166C881}"/>
             </c:ext>
@@ -1821,7 +1851,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D6BD-409D-9034-88FAE166C881}"/>
             </c:ext>
@@ -1936,7 +1966,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D6BD-409D-9034-88FAE166C881}"/>
             </c:ext>
@@ -1950,11 +1980,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149258512"/>
-        <c:axId val="149265040"/>
+        <c:axId val="-216574800"/>
+        <c:axId val="-216568272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149258512"/>
+        <c:axId val="-216574800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2045,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2082,12 +2111,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149265040"/>
+        <c:crossAx val="-216568272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149265040"/>
+        <c:axId val="-216568272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,7 +2181,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2219,7 +2247,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149258512"/>
+        <c:crossAx val="-216574800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2233,7 +2261,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2301,7 +2328,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2340,7 +2367,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2485,7 +2511,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3613-46D3-9E4D-A8350ACFFD61}"/>
             </c:ext>
@@ -2600,7 +2626,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3613-46D3-9E4D-A8350ACFFD61}"/>
             </c:ext>
@@ -2614,11 +2640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="149253616"/>
-        <c:axId val="149261232"/>
+        <c:axId val="-216586224"/>
+        <c:axId val="-216585136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149253616"/>
+        <c:axId val="-216586224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,7 +2705,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2746,12 +2771,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149261232"/>
+        <c:crossAx val="-216585136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149261232"/>
+        <c:axId val="-216585136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,7 +2841,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2883,7 +2907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149253616"/>
+        <c:crossAx val="-216586224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2897,7 +2921,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2965,7 +2988,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3191,7 +3214,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B867-47A6-A156-8991270A7DB0}"/>
             </c:ext>
@@ -3205,11 +3228,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="583071776"/>
-        <c:axId val="583081024"/>
+        <c:axId val="-216580784"/>
+        <c:axId val="-216586768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="583071776"/>
+        <c:axId val="-216580784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,7 +3293,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3337,12 +3359,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583081024"/>
+        <c:crossAx val="-216586768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="583081024"/>
+        <c:axId val="-216586768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,7 +3429,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3474,7 +3495,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583071776"/>
+        <c:crossAx val="-216580784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3524,7 +3545,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3539,7 +3560,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6256464698788515E-2"/>
+          <c:y val="3.97312198618558E-2"/>
+          <c:w val="0.94805808454157614"/>
+          <c:h val="0.91507881915373279"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3650,7 +3681,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F2B-4F19-999E-04AAB2191045}"/>
             </c:ext>
@@ -3763,7 +3794,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3F2B-4F19-999E-04AAB2191045}"/>
             </c:ext>
@@ -3777,11 +3808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="450000640"/>
-        <c:axId val="449999328"/>
+        <c:axId val="-216592752"/>
+        <c:axId val="-216588400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="450000640"/>
+        <c:axId val="-216592752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,12 +3869,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449999328"/>
+        <c:crossAx val="-216588400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449999328"/>
+        <c:axId val="-216588400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3900,7 +3931,346 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450000640"/>
+        <c:crossAx val="-216592752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Эксперемент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$3:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$E$3:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.1949999999999994</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.3090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.9689999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-212079088"/>
+        <c:axId val="-212091600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-212079088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-212091600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-212091600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-212079088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4189,6 +4559,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6770,6 +7180,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7447,16 +8373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>537881</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>197223</xdr:rowOff>
+      <xdr:rowOff>891988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7470,6 +8396,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>46968</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>351768</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>73079</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7743,7 +8704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -7778,10 +8739,10 @@
       <c r="F3" s="2">
         <v>0.82</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -8165,19 +9126,19 @@
       </c>
     </row>
     <row r="47" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="5"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="1">
         <v>1500</v>
       </c>
@@ -8400,19 +9361,19 @@
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C63" s="5"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="1">
         <v>1500</v>
       </c>
@@ -8635,19 +9596,19 @@
       </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="5"/>
+      <c r="C80" s="6"/>
       <c r="D80" s="1">
         <v>1500</v>
       </c>
@@ -8865,26 +9826,26 @@
       </c>
     </row>
     <row r="94" spans="3:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="6" t="s">
+      <c r="E94" s="6"/>
+      <c r="F94" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="5"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="6"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
@@ -9053,4 +10014,2187 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="8">
+        <f>(SUM(D3:D12))/10</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <f>ABS(D3-$E$3)</f>
+        <v>1.3877787807814457E-17</v>
+      </c>
+      <c r="G3" s="8">
+        <f>SUM(F3:F12)/10</f>
+        <v>6.0000000000000071E-3</v>
+      </c>
+      <c r="I3" s="8">
+        <f>G3+H1</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="D4" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9">
+        <f>ABS(D4-$E$3)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9">
+        <f>ABS(D5-$E$3)</f>
+        <v>1.3877787807814457E-17</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9">
+        <f>ABS(D6-$E$3)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="D7" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9">
+        <f>ABS(D7-$E$3)</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9">
+        <f>ABS(D8-$E$3)</f>
+        <v>1.3877787807814457E-17</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9">
+        <f>ABS(D9-$E$3)</f>
+        <v>1.3877787807814457E-17</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9">
+        <f>ABS(D10-$E$3)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9">
+        <f>ABS(D11-$E$3)</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9">
+        <f>ABS(D12-$E$3)</f>
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="8">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="E13" s="8">
+        <f>(SUM(D13:D22))/10</f>
+        <v>0.16099999999999998</v>
+      </c>
+      <c r="F13" s="9">
+        <f>ABS(D13-$E$13)</f>
+        <v>9.9999999999997313E-4</v>
+      </c>
+      <c r="G13" s="8">
+        <f>SUM(F13:F22)/10</f>
+        <v>5.3999999999999933E-3</v>
+      </c>
+      <c r="I13" s="8">
+        <f>G13+$H$1</f>
+        <v>8.3999999999999943E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="D14" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F22" si="0">ABS(D14-$E$13)</f>
+        <v>1.0999999999999982E-2</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997313E-4</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="D16" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000357E-3</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+      <c r="D17" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000357E-3</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="D18" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997313E-4</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997313E-4</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999982E-2</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000357E-3</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997313E-4</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="8">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="E23" s="8">
+        <f>(SUM(D23:D32))/10</f>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F23" s="9">
+        <f>ABS(D23-$E$23)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G23" s="8">
+        <f>SUM(F23:F32)/10</f>
+        <v>4.8000000000000013E-3</v>
+      </c>
+      <c r="I23" s="8">
+        <f>G23+$H$1</f>
+        <v>7.8000000000000014E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F32" si="1">ABS(D24-$E$23)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999983E-2</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+      <c r="D26" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+      <c r="D27" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+      <c r="D28" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="8"/>
+      <c r="D29" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="8"/>
+      <c r="D30" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+      <c r="D31" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="8"/>
+      <c r="D32" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="8">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="E33" s="8">
+        <f>(SUM(D33:D42))/10</f>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F33" s="9">
+        <f>ABS(D33-$E$33)</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="G33" s="8">
+        <f>SUM(F33:F42)/10</f>
+        <v>7.2000000000000067E-3</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" ref="I33:I64" si="2">G33+$H$1</f>
+        <v>1.0200000000000008E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9">
+        <f t="shared" ref="F34:F42" si="3">ABS(D34-$E$33)</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9">
+        <f t="shared" si="3"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="8"/>
+      <c r="D37" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9">
+        <f t="shared" si="3"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="8"/>
+      <c r="D38" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="8"/>
+      <c r="D39" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="8"/>
+      <c r="D40" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9">
+        <f t="shared" si="3"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="8"/>
+      <c r="D41" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9">
+        <f t="shared" si="3"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9">
+        <f t="shared" si="3"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="8">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E43" s="8">
+        <f>(SUM(D43:D52))/10</f>
+        <v>0.6140000000000001</v>
+      </c>
+      <c r="F43" s="9">
+        <f>ABS(D43-$E$43)</f>
+        <v>1.4000000000000123E-2</v>
+      </c>
+      <c r="G43" s="8">
+        <f>SUM(F43:F52)/10</f>
+        <v>7.1999999999999842E-3</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" ref="I43:I74" si="4">G43+$H$1</f>
+        <v>1.0199999999999983E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="8"/>
+      <c r="D44" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9">
+        <f t="shared" ref="F44:F52" si="5">ABS(D44-$E$43)</f>
+        <v>4.0000000000001146E-3</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="8"/>
+      <c r="D45" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9">
+        <f t="shared" si="5"/>
+        <v>5.9999999999998943E-3</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="8"/>
+      <c r="D46" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9">
+        <f t="shared" si="5"/>
+        <v>5.9999999999998943E-3</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="8"/>
+      <c r="D47" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9">
+        <f t="shared" si="5"/>
+        <v>5.9999999999998943E-3</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="8"/>
+      <c r="D48" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9">
+        <f t="shared" si="5"/>
+        <v>5.9999999999998943E-3</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="8"/>
+      <c r="D49" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9">
+        <f t="shared" si="5"/>
+        <v>5.9999999999998943E-3</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="8"/>
+      <c r="D50" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9">
+        <f t="shared" si="5"/>
+        <v>5.9999999999998943E-3</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="8"/>
+      <c r="D51" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000123E-2</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="8"/>
+      <c r="D52" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9">
+        <f t="shared" si="5"/>
+        <v>4.0000000000001146E-3</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="8">
+        <v>18</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="E53" s="8">
+        <f>(SUM(D53:D62))/10</f>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F53" s="9">
+        <f>ABS(D53-$E$53)</f>
+        <v>1.19999999999999E-2</v>
+      </c>
+      <c r="G53" s="8">
+        <f>SUM(F53:F62)/10</f>
+        <v>6.3999999999999838E-3</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" ref="I53:I84" si="6">G53+$H$1</f>
+        <v>9.3999999999999848E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="8"/>
+      <c r="D54" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9">
+        <f t="shared" ref="F54:F62" si="7">ABS(D54-$E$53)</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="8"/>
+      <c r="D55" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="8"/>
+      <c r="D56" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G56" s="8"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="8"/>
+      <c r="D57" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="8"/>
+      <c r="D58" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="8"/>
+      <c r="D59" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="8"/>
+      <c r="D60" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9">
+        <f t="shared" si="7"/>
+        <v>1.19999999999999E-2</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="8"/>
+      <c r="D61" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="8"/>
+      <c r="D62" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="8">
+        <v>21</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="E63" s="8">
+        <f>(SUM(D63:D72))/10</f>
+        <v>1.4449999999999998</v>
+      </c>
+      <c r="F63" s="9">
+        <f>ABS(D63-$E$63)</f>
+        <v>1.4999999999999902E-2</v>
+      </c>
+      <c r="G63" s="8">
+        <f>SUM(F63:F72)/10</f>
+        <v>1.0000000000000031E-2</v>
+      </c>
+      <c r="I63" s="8">
+        <f t="shared" ref="I63:I102" si="8">G63+$H$1</f>
+        <v>1.3000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="8"/>
+      <c r="D64" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9">
+        <f t="shared" ref="F64:F72" si="9">ABS(D64-$E$63)</f>
+        <v>1.4999999999999902E-2</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="8"/>
+      <c r="D65" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9">
+        <f t="shared" si="9"/>
+        <v>1.4999999999999902E-2</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="8"/>
+      <c r="D66" s="5">
+        <v>1.44</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="9">
+        <f t="shared" si="9"/>
+        <v>4.9999999999998934E-3</v>
+      </c>
+      <c r="G66" s="8"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="8"/>
+      <c r="D67" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9">
+        <f t="shared" si="9"/>
+        <v>5.0000000000001155E-3</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="8"/>
+      <c r="D68" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9">
+        <f t="shared" si="9"/>
+        <v>1.5000000000000124E-2</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="8"/>
+      <c r="D69" s="5">
+        <v>1.46</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9">
+        <f t="shared" si="9"/>
+        <v>1.5000000000000124E-2</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="8"/>
+      <c r="D70" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9">
+        <f t="shared" si="9"/>
+        <v>5.0000000000001155E-3</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="8"/>
+      <c r="D71" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="9">
+        <f t="shared" si="9"/>
+        <v>5.0000000000001155E-3</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="8"/>
+      <c r="D72" s="5">
+        <v>1.45</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9">
+        <f t="shared" si="9"/>
+        <v>5.0000000000001155E-3</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="8">
+        <v>24</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E73" s="8">
+        <f>(SUM(D73:D82))/10</f>
+        <v>2.1949999999999994</v>
+      </c>
+      <c r="F73" s="9">
+        <f>ABS(D73-$E$73)</f>
+        <v>1.4999999999999236E-2</v>
+      </c>
+      <c r="G73" s="8">
+        <f>SUM(F73:F82)/10</f>
+        <v>7.0000000000003393E-3</v>
+      </c>
+      <c r="I73" s="8">
+        <f t="shared" ref="I73:I102" si="10">G73+$H$1</f>
+        <v>1.0000000000000338E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="8"/>
+      <c r="D74" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="9">
+        <f t="shared" ref="F74:F82" si="11">ABS(D74-$E$73)</f>
+        <v>1.4999999999999236E-2</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="8"/>
+      <c r="D75" s="5">
+        <v>2.19</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="9">
+        <f t="shared" si="11"/>
+        <v>4.9999999999994493E-3</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="8"/>
+      <c r="D76" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9">
+        <f t="shared" si="11"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="G76" s="8"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="8"/>
+      <c r="D77" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="9">
+        <f t="shared" si="11"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="G77" s="8"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="8"/>
+      <c r="D78" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="9">
+        <f t="shared" si="11"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="G78" s="8"/>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="8"/>
+      <c r="D79" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9">
+        <f t="shared" si="11"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="8"/>
+      <c r="D80" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="9">
+        <f t="shared" si="11"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="G80" s="8"/>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="8"/>
+      <c r="D81" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9">
+        <f t="shared" si="11"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="G81" s="8"/>
+      <c r="I81" s="8"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="8"/>
+      <c r="D82" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9">
+        <f t="shared" si="11"/>
+        <v>5.0000000000007816E-3</v>
+      </c>
+      <c r="G82" s="8"/>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="8">
+        <v>27</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E83" s="8">
+        <f>(SUM(D83:D92))/10</f>
+        <v>3.3090000000000002</v>
+      </c>
+      <c r="F83" s="9">
+        <f>ABS(D83-$E$83)</f>
+        <v>9.0000000000003411E-3</v>
+      </c>
+      <c r="G83" s="8">
+        <f>SUM(F83:F92)/10</f>
+        <v>9.0000000000000305E-3</v>
+      </c>
+      <c r="I83" s="8">
+        <f t="shared" ref="I83:I102" si="12">G83+$H$1</f>
+        <v>1.2000000000000031E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="8"/>
+      <c r="D84" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9">
+        <f t="shared" ref="F84:F92" si="13">ABS(D84-$E$83)</f>
+        <v>1.0999999999999677E-2</v>
+      </c>
+      <c r="G84" s="8"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="8"/>
+      <c r="D85" s="5">
+        <v>3.31</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9">
+        <f t="shared" si="13"/>
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="G85" s="8"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="8"/>
+      <c r="D86" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9">
+        <f t="shared" si="13"/>
+        <v>1.0999999999999677E-2</v>
+      </c>
+      <c r="G86" s="8"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C87" s="8"/>
+      <c r="D87" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9">
+        <f t="shared" si="13"/>
+        <v>1.0999999999999677E-2</v>
+      </c>
+      <c r="G87" s="8"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="8"/>
+      <c r="D88" s="5">
+        <v>3.32</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="9">
+        <f t="shared" si="13"/>
+        <v>1.0999999999999677E-2</v>
+      </c>
+      <c r="G88" s="8"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="8"/>
+      <c r="D89" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9">
+        <f t="shared" si="13"/>
+        <v>9.0000000000003411E-3</v>
+      </c>
+      <c r="G89" s="8"/>
+      <c r="I89" s="8"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="8"/>
+      <c r="D90" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9">
+        <f t="shared" si="13"/>
+        <v>9.0000000000003411E-3</v>
+      </c>
+      <c r="G90" s="8"/>
+      <c r="I90" s="8"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="8"/>
+      <c r="D91" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9">
+        <f t="shared" si="13"/>
+        <v>9.0000000000003411E-3</v>
+      </c>
+      <c r="G91" s="8"/>
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="8"/>
+      <c r="D92" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="9">
+        <f t="shared" si="13"/>
+        <v>9.0000000000003411E-3</v>
+      </c>
+      <c r="G92" s="8"/>
+      <c r="I92" s="8"/>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="8">
+        <v>30</v>
+      </c>
+      <c r="D93" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="E93" s="8">
+        <f>(SUM(D93:D102))/10</f>
+        <v>4.9689999999999994</v>
+      </c>
+      <c r="F93" s="9">
+        <f>ABS(D93-$E$93)</f>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G93" s="8">
+        <f>SUM(F93:F102)/10</f>
+        <v>3.6000000000002254E-3</v>
+      </c>
+      <c r="I93" s="8">
+        <f t="shared" ref="I93:I102" si="14">G93+$H$1</f>
+        <v>6.6000000000002255E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="8"/>
+      <c r="D94" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="9">
+        <f t="shared" ref="F94:F102" si="15">ABS(D94-$E$93)</f>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G94" s="8"/>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="8"/>
+      <c r="D95" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9">
+        <f t="shared" si="15"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G95" s="8"/>
+      <c r="I95" s="8"/>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="8"/>
+      <c r="D96" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9">
+        <f t="shared" si="15"/>
+        <v>1.1000000000001009E-2</v>
+      </c>
+      <c r="G96" s="8"/>
+      <c r="I96" s="8"/>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C97" s="8"/>
+      <c r="D97" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9">
+        <f t="shared" si="15"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G97" s="8"/>
+      <c r="I97" s="8"/>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C98" s="8"/>
+      <c r="D98" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9">
+        <f t="shared" si="15"/>
+        <v>8.9999999999994529E-3</v>
+      </c>
+      <c r="G98" s="8"/>
+      <c r="I98" s="8"/>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C99" s="8"/>
+      <c r="D99" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9">
+        <f t="shared" si="15"/>
+        <v>8.9999999999994529E-3</v>
+      </c>
+      <c r="G99" s="8"/>
+      <c r="I99" s="8"/>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C100" s="8"/>
+      <c r="D100" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9">
+        <f t="shared" si="15"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G100" s="8"/>
+      <c r="I100" s="8"/>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C101" s="8"/>
+      <c r="D101" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9">
+        <f t="shared" si="15"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G101" s="8"/>
+      <c r="I101" s="8"/>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C102" s="8"/>
+      <c r="D102" s="5">
+        <v>4.97</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9">
+        <f t="shared" si="15"/>
+        <v>1.000000000000334E-3</v>
+      </c>
+      <c r="G102" s="8"/>
+      <c r="I102" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="I53:I62"/>
+    <mergeCell ref="I63:I72"/>
+    <mergeCell ref="I73:I82"/>
+    <mergeCell ref="I83:I92"/>
+    <mergeCell ref="I93:I102"/>
+    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="I13:I22"/>
+    <mergeCell ref="I23:I32"/>
+    <mergeCell ref="I33:I42"/>
+    <mergeCell ref="I43:I52"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="E53:E62"/>
+    <mergeCell ref="E63:E72"/>
+    <mergeCell ref="E73:E82"/>
+    <mergeCell ref="E83:E92"/>
+    <mergeCell ref="E93:E102"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="E23:E32"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="C73:C82"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="C93:C102"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="C13:C22"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="C53:C62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J2:K114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="8">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="8"/>
+      <c r="K4" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="8"/>
+      <c r="K5" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="8"/>
+      <c r="K6" s="5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="8"/>
+      <c r="K7" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="8"/>
+      <c r="K8" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="8"/>
+      <c r="K9" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="8"/>
+      <c r="K10" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="8"/>
+      <c r="K11" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="8"/>
+      <c r="K12" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="8"/>
+      <c r="K13" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="8">
+        <v>6</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="8"/>
+      <c r="K16" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="8"/>
+      <c r="K17" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="8"/>
+      <c r="K18" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="8"/>
+      <c r="K19" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="8"/>
+      <c r="K20" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="8"/>
+      <c r="K21" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="8"/>
+      <c r="K22" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J23" s="8"/>
+      <c r="K23" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="8"/>
+      <c r="K24" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="8">
+        <v>9</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="8"/>
+      <c r="K27" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="8"/>
+      <c r="K28" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="8"/>
+      <c r="K29" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J30" s="8"/>
+      <c r="K30" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J31" s="8"/>
+      <c r="K31" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J32" s="8"/>
+      <c r="K32" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J33" s="8"/>
+      <c r="K33" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J34" s="8"/>
+      <c r="K34" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J35" s="8"/>
+      <c r="K35" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J37" s="8">
+        <v>12</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J38" s="8"/>
+      <c r="K38" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J39" s="8"/>
+      <c r="K39" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J40" s="8"/>
+      <c r="K40" s="5">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J41" s="8"/>
+      <c r="K41" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J42" s="8"/>
+      <c r="K42" s="5">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J43" s="8"/>
+      <c r="K43" s="5">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J44" s="8"/>
+      <c r="K44" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J45" s="8"/>
+      <c r="K45" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J46" s="8"/>
+      <c r="K46" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J48" s="8">
+        <v>15</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J49" s="8"/>
+      <c r="K49" s="5">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J50" s="8"/>
+      <c r="K50" s="5">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J51" s="8"/>
+      <c r="K51" s="5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J52" s="8"/>
+      <c r="K52" s="5">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J53" s="8"/>
+      <c r="K53" s="5">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J54" s="8"/>
+      <c r="K54" s="5">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J55" s="8"/>
+      <c r="K55" s="5">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J56" s="8"/>
+      <c r="K56" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J57" s="8"/>
+      <c r="K57" s="5">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J58" s="8"/>
+      <c r="K58" s="5">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J60" s="8">
+        <v>18</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J61" s="8"/>
+      <c r="K61" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="8"/>
+      <c r="K62" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J63" s="8"/>
+      <c r="K63" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J64" s="8"/>
+      <c r="K64" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J65" s="8"/>
+      <c r="K65" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J66" s="8"/>
+      <c r="K66" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J67" s="8"/>
+      <c r="K67" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J68" s="8"/>
+      <c r="K68" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J69" s="8"/>
+      <c r="K69" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J71" s="8">
+        <v>21</v>
+      </c>
+      <c r="K71" s="5">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J72" s="8"/>
+      <c r="K72" s="5">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J73" s="8"/>
+      <c r="K73" s="5">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J74" s="8"/>
+      <c r="K74" s="5">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J75" s="8"/>
+      <c r="K75" s="5">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J76" s="8"/>
+      <c r="K76" s="5">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J77" s="8"/>
+      <c r="K77" s="5">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J78" s="8"/>
+      <c r="K78" s="5">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J79" s="8"/>
+      <c r="K79" s="5">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J80" s="8"/>
+      <c r="K80" s="5">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J82" s="8">
+        <v>24</v>
+      </c>
+      <c r="K82" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J83" s="8"/>
+      <c r="K83" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J84" s="8"/>
+      <c r="K84" s="5">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J85" s="8"/>
+      <c r="K85" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J86" s="8"/>
+      <c r="K86" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J87" s="8"/>
+      <c r="K87" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J88" s="8"/>
+      <c r="K88" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J89" s="8"/>
+      <c r="K89" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J90" s="8"/>
+      <c r="K90" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J91" s="8"/>
+      <c r="K91" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J93" s="8">
+        <v>27</v>
+      </c>
+      <c r="K93" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="94" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J94" s="8"/>
+      <c r="K94" s="5">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="95" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J95" s="8"/>
+      <c r="K95" s="5">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="96" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J96" s="8"/>
+      <c r="K96" s="5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J97" s="8"/>
+      <c r="K97" s="5">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="98" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J98" s="8"/>
+      <c r="K98" s="5">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="99" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J99" s="8"/>
+      <c r="K99" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="100" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J100" s="8"/>
+      <c r="K100" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="101" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J101" s="8"/>
+      <c r="K101" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="102" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J102" s="8"/>
+      <c r="K102" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="103" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J103" s="8"/>
+      <c r="K103" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="105" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J105" s="8">
+        <v>30</v>
+      </c>
+      <c r="K105" s="5">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="106" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="8"/>
+      <c r="K106" s="5">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="107" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J107" s="8"/>
+      <c r="K107" s="5">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="108" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J108" s="8"/>
+      <c r="K108" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J109" s="8"/>
+      <c r="K109" s="5">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="110" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J110" s="8"/>
+      <c r="K110" s="5">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="111" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J111" s="8"/>
+      <c r="K111" s="5">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="112" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J112" s="8"/>
+      <c r="K112" s="5">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="113" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J113" s="8"/>
+      <c r="K113" s="5">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J114" s="8"/>
+      <c r="K114" s="5">
+        <v>4.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="J71:J80"/>
+    <mergeCell ref="J82:J91"/>
+    <mergeCell ref="J93:J103"/>
+    <mergeCell ref="J105:J114"/>
+    <mergeCell ref="J3:J13"/>
+    <mergeCell ref="J15:J24"/>
+    <mergeCell ref="J26:J35"/>
+    <mergeCell ref="J37:J46"/>
+    <mergeCell ref="J48:J58"/>
+    <mergeCell ref="J60:J69"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dissertacia/MyWork/DocWork/Data.xlsx
+++ b/Dissertacia/MyWork/DocWork/Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Druzhinin_Vasily\Documents\My_Project\GAM\trunk\Dissertacia\MyWork\DocWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MyWorks\trunk\Dissertacia\MyWork\DocWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -140,6 +140,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -148,15 +157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -215,6 +215,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -479,11 +480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-216590576"/>
-        <c:axId val="-216587312"/>
+        <c:axId val="196899504"/>
+        <c:axId val="196899888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-216590576"/>
+        <c:axId val="196899504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,6 +531,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -596,12 +598,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216587312"/>
+        <c:crossAx val="196899888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-216587312"/>
+        <c:axId val="196899888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,6 +654,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -718,7 +721,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216590576"/>
+        <c:crossAx val="196899504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -774,10 +777,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -812,6 +815,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -856,8 +860,11 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -867,11 +874,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -971,8 +982,11 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -982,11 +996,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1086,8 +1104,11 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1097,11 +1118,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1200,11 +1225,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-216581872"/>
-        <c:axId val="-216571536"/>
+        <c:axId val="196946056"/>
+        <c:axId val="196946440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-216581872"/>
+        <c:axId val="196946056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,6 +1290,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1331,12 +1357,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216571536"/>
+        <c:crossAx val="196946440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-216571536"/>
+        <c:axId val="196946440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,6 +1427,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1430,7 +1457,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1467,7 +1494,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216581872"/>
+        <c:crossAx val="196946056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1481,6 +1508,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1544,6 +1572,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1554,10 +1583,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1592,6 +1621,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1636,8 +1666,11 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1647,11 +1680,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1751,7 +1788,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1762,11 +1801,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1866,8 +1909,11 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1877,11 +1923,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1980,11 +2030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-216574800"/>
-        <c:axId val="-216568272"/>
+        <c:axId val="196847576"/>
+        <c:axId val="197520608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-216574800"/>
+        <c:axId val="196847576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,6 +2095,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2111,12 +2162,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216568272"/>
+        <c:crossAx val="197520608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-216568272"/>
+        <c:axId val="197520608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,6 +2232,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2210,7 +2262,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2247,7 +2299,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216574800"/>
+        <c:crossAx val="196847576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2261,6 +2313,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2324,6 +2377,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2334,10 +2388,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2367,6 +2421,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2411,8 +2466,11 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2422,11 +2480,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2526,7 +2588,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2537,11 +2601,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2640,11 +2708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-216586224"/>
-        <c:axId val="-216585136"/>
+        <c:axId val="194673080"/>
+        <c:axId val="194673472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-216586224"/>
+        <c:axId val="194673080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,6 +2773,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2771,12 +2840,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216585136"/>
+        <c:crossAx val="194673472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-216585136"/>
+        <c:axId val="194673472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,6 +2910,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2907,7 +2977,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216586224"/>
+        <c:crossAx val="194673080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2921,6 +2991,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2984,6 +3055,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3228,11 +3300,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-216580784"/>
-        <c:axId val="-216586768"/>
+        <c:axId val="197522584"/>
+        <c:axId val="197522976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-216580784"/>
+        <c:axId val="197522584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,6 +3365,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3359,12 +3432,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216586768"/>
+        <c:crossAx val="197522976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-216586768"/>
+        <c:axId val="197522976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,6 +3502,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3495,7 +3569,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216580784"/>
+        <c:crossAx val="197522584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3808,11 +3882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-216592752"/>
-        <c:axId val="-216588400"/>
+        <c:axId val="197523760"/>
+        <c:axId val="197524152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-216592752"/>
+        <c:axId val="197523760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,12 +3943,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216588400"/>
+        <c:crossAx val="197524152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-216588400"/>
+        <c:axId val="197524152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3931,7 +4005,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-216592752"/>
+        <c:crossAx val="197523760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4147,11 +4221,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-212079088"/>
-        <c:axId val="-212091600"/>
+        <c:axId val="197522192"/>
+        <c:axId val="197521800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-212079088"/>
+        <c:axId val="197522192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,12 +4282,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212091600"/>
+        <c:crossAx val="197521800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-212091600"/>
+        <c:axId val="197521800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4270,7 +4344,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-212079088"/>
+        <c:crossAx val="197522192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4360,121 +4434,82 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -8309,16 +8344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>451339</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>97447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65943</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>173648</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8405,6 +8440,806 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84738</cdr:x>
+      <cdr:y>0.15434</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91344</cdr:x>
+      <cdr:y>0.2322</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5201627" y="592993"/>
+          <a:ext cx="405542" cy="299176"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>–</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84618</cdr:x>
+      <cdr:y>0.26112</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91225</cdr:x>
+      <cdr:y>0.33899</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5194300" y="1003300"/>
+          <a:ext cx="405542" cy="299176"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>–2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.8438</cdr:x>
+      <cdr:y>0.40224</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90986</cdr:x>
+      <cdr:y>0.4801</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5179647" y="1545492"/>
+          <a:ext cx="405542" cy="299176"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>–3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84022</cdr:x>
+      <cdr:y>0.13881</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90628</cdr:x>
+      <cdr:y>0.21653</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5157665" y="534377"/>
+          <a:ext cx="405542" cy="299176"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>–1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84141</cdr:x>
+      <cdr:y>0.3025</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.90748</cdr:x>
+      <cdr:y>0.38022</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5164992" y="1164492"/>
+          <a:ext cx="405542" cy="299176"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>–2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84738</cdr:x>
+      <cdr:y>0.38815</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91344</cdr:x>
+      <cdr:y>0.46587</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5201627" y="1494204"/>
+          <a:ext cx="405542" cy="299176"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>– 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84215</cdr:x>
+      <cdr:y>0.19934</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92061</cdr:x>
+      <cdr:y>0.28578</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4352562" y="689969"/>
+          <a:ext cx="405542" cy="299176"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>–</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84198</cdr:x>
+      <cdr:y>0.33432</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92045</cdr:x>
+      <cdr:y>0.42076</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4351705" y="1157166"/>
+          <a:ext cx="405542" cy="299176"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>–</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8704,8 +9539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W68" sqref="W68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -8739,10 +9574,10 @@
       <c r="F3" s="2">
         <v>0.82</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -9126,19 +9961,19 @@
       </c>
     </row>
     <row r="47" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="6"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="1">
         <v>1500</v>
       </c>
@@ -9361,19 +10196,19 @@
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C63" s="6"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="1">
         <v>1500</v>
       </c>
@@ -9596,19 +10431,19 @@
       </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="6"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="1">
         <v>1500</v>
       </c>
@@ -9826,26 +10661,26 @@
       </c>
     </row>
     <row r="94" spans="3:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="7" t="s">
+      <c r="E94" s="9"/>
+      <c r="F94" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="6"/>
+      <c r="C95" s="9"/>
       <c r="D95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="7"/>
+      <c r="F95" s="10"/>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
@@ -10020,7 +10855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
@@ -10029,7 +10864,7 @@
     <col min="3" max="3" width="9.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" style="5" customWidth="1"/>
@@ -10040,1471 +10875,1441 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="3:9" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="3:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="8">
+      <c r="C3" s="11">
         <v>3</v>
       </c>
       <c r="D3" s="5">
         <v>0.1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="11">
         <f>(SUM(D3:D12))/10</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="F3" s="9">
-        <f>ABS(D3-$E$3)</f>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F12" si="0">ABS(D3-$E$3)</f>
         <v>1.3877787807814457E-17</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="11">
         <f>SUM(F3:F12)/10</f>
         <v>6.0000000000000071E-3</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="11">
         <f>G3+H1</f>
         <v>9.000000000000008E-3</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="8"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5">
         <v>0.11</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9">
-        <f>ABS(D4-$E$3)</f>
+      <c r="E4" s="11"/>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="8"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5">
         <v>0.1</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9">
-        <f>ABS(D5-$E$3)</f>
+      <c r="E5" s="11"/>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
         <v>1.3877787807814457E-17</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5">
         <v>0.11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9">
-        <f>ABS(D6-$E$3)</f>
+      <c r="E6" s="11"/>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5">
         <v>0.09</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9">
-        <f>ABS(D7-$E$3)</f>
+      <c r="E7" s="11"/>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5">
         <v>0.1</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9">
-        <f>ABS(D8-$E$3)</f>
+      <c r="E8" s="11"/>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
         <v>1.3877787807814457E-17</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5">
         <v>0.1</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9">
-        <f>ABS(D9-$E$3)</f>
+      <c r="E9" s="11"/>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
         <v>1.3877787807814457E-17</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5">
         <v>0.11</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9">
-        <f>ABS(D10-$E$3)</f>
+      <c r="E10" s="11"/>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="5">
         <v>0.09</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9">
-        <f>ABS(D11-$E$3)</f>
+      <c r="E11" s="11"/>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5">
         <v>0.09</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9">
-        <f>ABS(D12-$E$3)</f>
+      <c r="E12" s="11"/>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="8">
+      <c r="C13" s="11">
         <v>6</v>
       </c>
       <c r="D13" s="5">
         <v>0.16</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="11">
         <f>(SUM(D13:D22))/10</f>
         <v>0.16099999999999998</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <f>ABS(D13-$E$13)</f>
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="11">
         <f>SUM(F13:F22)/10</f>
         <v>5.3999999999999933E-3</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="11">
         <f>G13+$H$1</f>
         <v>8.3999999999999943E-3</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5">
         <v>0.15</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9">
-        <f t="shared" ref="F14:F22" si="0">ABS(D14-$E$13)</f>
+      <c r="E14" s="11"/>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F22" si="1">ABS(D14-$E$13)</f>
         <v>1.0999999999999982E-2</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5">
         <v>0.16</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="5">
         <v>0.17</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
         <v>9.0000000000000357E-3</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="5">
         <v>0.17</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
         <v>9.0000000000000357E-3</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="5">
         <v>0.16</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9">
-        <f t="shared" si="0"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="6">
+        <f t="shared" si="1"/>
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="5">
         <v>0.16</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9">
-        <f t="shared" si="0"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="5">
         <v>0.15</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="6">
+        <f t="shared" si="1"/>
         <v>1.0999999999999982E-2</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="5">
         <v>0.17</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9">
-        <f t="shared" si="0"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
         <v>9.0000000000000357E-3</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="5">
         <v>0.16</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9">
-        <f t="shared" si="0"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="11"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="8">
+      <c r="C23" s="11">
         <v>9</v>
       </c>
       <c r="D23" s="5">
         <v>0.24</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="11">
         <f>(SUM(D23:D32))/10</f>
         <v>0.24199999999999999</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <f>ABS(D23-$E$23)</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="11">
         <f>SUM(F23:F32)/10</f>
         <v>4.8000000000000013E-3</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="11">
         <f>G23+$H$1</f>
         <v>7.8000000000000014E-3</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="5">
         <v>0.24</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9">
-        <f t="shared" ref="F24:F32" si="1">ABS(D24-$E$23)</f>
+      <c r="E24" s="11"/>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F32" si="2">ABS(D24-$E$23)</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="5">
         <v>0.23</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9">
-        <f t="shared" si="1"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="6">
+        <f t="shared" si="2"/>
         <v>1.1999999999999983E-2</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="11"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="5">
         <v>0.24</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9">
-        <f t="shared" si="1"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="6">
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="G26" s="11"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="5">
         <v>0.25</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9">
-        <f t="shared" si="1"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="6">
+        <f t="shared" si="2"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="8"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="5">
         <v>0.25</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9">
-        <f t="shared" si="1"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="6">
+        <f t="shared" si="2"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="G28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="8"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="5">
         <v>0.25</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9">
-        <f t="shared" si="1"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="6">
+        <f t="shared" si="2"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="8"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="5">
         <v>0.24</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9">
-        <f t="shared" si="1"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="6">
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="G30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="5">
         <v>0.24</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9">
-        <f t="shared" si="1"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="6">
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="8"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="5">
         <v>0.24</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9">
-        <f t="shared" si="1"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="6">
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="G32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="8">
+      <c r="C33" s="11">
         <v>12</v>
       </c>
       <c r="D33" s="5">
         <v>0.38</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="11">
         <f>(SUM(D33:D42))/10</f>
         <v>0.38900000000000001</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="6">
         <f>ABS(D33-$E$33)</f>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="11">
         <f>SUM(F33:F42)/10</f>
         <v>7.2000000000000067E-3</v>
       </c>
-      <c r="I33" s="8">
-        <f t="shared" ref="I33:I64" si="2">G33+$H$1</f>
+      <c r="I33" s="11">
+        <f t="shared" ref="I33" si="3">G33+$H$1</f>
         <v>1.0200000000000008E-2</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="8"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="5">
         <v>0.38</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9">
-        <f t="shared" ref="F34:F42" si="3">ABS(D34-$E$33)</f>
+      <c r="E34" s="11"/>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F42" si="4">ABS(D34-$E$33)</f>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="G34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="8"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="5">
         <v>0.38</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9">
-        <f t="shared" si="3"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="6">
+        <f t="shared" si="4"/>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="G35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="8"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="5">
         <v>0.39</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9">
-        <f t="shared" si="3"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="6">
+        <f t="shared" si="4"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="G36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="5">
         <v>0.4</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9">
-        <f t="shared" si="3"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="6">
+        <f t="shared" si="4"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="G37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="8"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="5">
         <v>0.39</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9">
-        <f t="shared" si="3"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="6">
+        <f t="shared" si="4"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="G38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="8"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="5">
         <v>0.39</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9">
-        <f t="shared" si="3"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="6">
+        <f t="shared" si="4"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="G39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="8"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="5">
         <v>0.38</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9">
-        <f t="shared" si="3"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="6">
+        <f t="shared" si="4"/>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="G40" s="11"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="8"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="5">
         <v>0.4</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9">
-        <f t="shared" si="3"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="6">
+        <f t="shared" si="4"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="G41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="8"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="5">
         <v>0.4</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9">
-        <f t="shared" si="3"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="6">
+        <f t="shared" si="4"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="G42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="8">
+      <c r="C43" s="11">
         <v>15</v>
       </c>
       <c r="D43" s="5">
         <v>0.6</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="11">
         <f>(SUM(D43:D52))/10</f>
         <v>0.6140000000000001</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="6">
         <f>ABS(D43-$E$43)</f>
         <v>1.4000000000000123E-2</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="11">
         <f>SUM(F43:F52)/10</f>
         <v>7.1999999999999842E-3</v>
       </c>
-      <c r="I43" s="8">
-        <f t="shared" ref="I43:I74" si="4">G43+$H$1</f>
+      <c r="I43" s="11">
+        <f t="shared" ref="I43" si="5">G43+$H$1</f>
         <v>1.0199999999999983E-2</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="8"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="5">
         <v>0.61</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9">
-        <f t="shared" ref="F44:F52" si="5">ABS(D44-$E$43)</f>
+      <c r="E44" s="11"/>
+      <c r="F44" s="6">
+        <f t="shared" ref="F44:F52" si="6">ABS(D44-$E$43)</f>
         <v>4.0000000000001146E-3</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="G44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="8"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="5">
         <v>0.62</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9">
-        <f t="shared" si="5"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="6">
+        <f t="shared" si="6"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="G45" s="11"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="8"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="5">
         <v>0.62</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9">
-        <f t="shared" si="5"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="6">
+        <f t="shared" si="6"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="G46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="8"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="5">
         <v>0.62</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9">
-        <f t="shared" si="5"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="6">
+        <f t="shared" si="6"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="G47" s="11"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="8"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="5">
         <v>0.62</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9">
-        <f t="shared" si="5"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="6">
+        <f t="shared" si="6"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="G48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="8"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="5">
         <v>0.62</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9">
-        <f t="shared" si="5"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="6">
+        <f t="shared" si="6"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="G49" s="11"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="8"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="5">
         <v>0.62</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9">
-        <f t="shared" si="5"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="6">
+        <f t="shared" si="6"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="G50" s="11"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="8"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="5">
         <v>0.6</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9">
-        <f t="shared" si="5"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="6">
+        <f t="shared" si="6"/>
         <v>1.4000000000000123E-2</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="G51" s="11"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="8"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="5">
         <v>0.61</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="9">
-        <f t="shared" si="5"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="6">
+        <f t="shared" si="6"/>
         <v>4.0000000000001146E-3</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="G52" s="11"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="8">
+      <c r="C53" s="11">
         <v>18</v>
       </c>
       <c r="D53" s="5">
         <v>0.93</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="11">
         <f>(SUM(D53:D62))/10</f>
         <v>0.94199999999999995</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="6">
         <f>ABS(D53-$E$53)</f>
         <v>1.19999999999999E-2</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="11">
         <f>SUM(F53:F62)/10</f>
         <v>6.3999999999999838E-3</v>
       </c>
-      <c r="I53" s="8">
-        <f t="shared" ref="I53:I84" si="6">G53+$H$1</f>
+      <c r="I53" s="11">
+        <f t="shared" ref="I53" si="7">G53+$H$1</f>
         <v>9.3999999999999848E-3</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="8"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="5">
         <v>0.94</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9">
-        <f t="shared" ref="F54:F62" si="7">ABS(D54-$E$53)</f>
+      <c r="E54" s="11"/>
+      <c r="F54" s="6">
+        <f t="shared" ref="F54:F62" si="8">ABS(D54-$E$53)</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="G54" s="11"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="8"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="5">
         <v>0.94</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="9">
-        <f t="shared" si="7"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="6">
+        <f t="shared" si="8"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="G55" s="11"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="8"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="5">
         <v>0.94</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="9">
-        <f t="shared" si="7"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="6">
+        <f t="shared" si="8"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="G56" s="11"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="8"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="5">
         <v>0.95</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="9">
-        <f t="shared" si="7"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="6">
+        <f t="shared" si="8"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="G57" s="11"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="8"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="5">
         <v>0.95</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9">
-        <f t="shared" si="7"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="6">
+        <f t="shared" si="8"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="G58" s="11"/>
+      <c r="I58" s="11"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="8"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="5">
         <v>0.95</v>
       </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9">
-        <f t="shared" si="7"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="6">
+        <f t="shared" si="8"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="G59" s="11"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="8"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="5">
         <v>0.93</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="9">
-        <f t="shared" si="7"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="6">
+        <f t="shared" si="8"/>
         <v>1.19999999999999E-2</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="G60" s="11"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="8"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="5">
         <v>0.94</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="9">
-        <f t="shared" si="7"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="6">
+        <f t="shared" si="8"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="G61" s="11"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="8"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="5">
         <v>0.95</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="9">
-        <f t="shared" si="7"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="6">
+        <f t="shared" si="8"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="G62" s="11"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="8">
+      <c r="C63" s="11">
         <v>21</v>
       </c>
       <c r="D63" s="5">
         <v>1.43</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="11">
         <f>(SUM(D63:D72))/10</f>
         <v>1.4449999999999998</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="6">
         <f>ABS(D63-$E$63)</f>
         <v>1.4999999999999902E-2</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="11">
         <f>SUM(F63:F72)/10</f>
         <v>1.0000000000000031E-2</v>
       </c>
-      <c r="I63" s="8">
-        <f t="shared" ref="I63:I102" si="8">G63+$H$1</f>
+      <c r="I63" s="11">
+        <f t="shared" ref="I63" si="9">G63+$H$1</f>
         <v>1.3000000000000032E-2</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="8"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="5">
         <v>1.43</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="9">
-        <f t="shared" ref="F64:F72" si="9">ABS(D64-$E$63)</f>
+      <c r="E64" s="11"/>
+      <c r="F64" s="6">
+        <f t="shared" ref="F64:F72" si="10">ABS(D64-$E$63)</f>
         <v>1.4999999999999902E-2</v>
       </c>
-      <c r="G64" s="8"/>
-      <c r="I64" s="8"/>
+      <c r="G64" s="11"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="8"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="5">
         <v>1.43</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="9">
-        <f t="shared" si="9"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="6">
+        <f t="shared" si="10"/>
         <v>1.4999999999999902E-2</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="G65" s="11"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="8"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="5">
         <v>1.44</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="9">
-        <f t="shared" si="9"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="6">
+        <f t="shared" si="10"/>
         <v>4.9999999999998934E-3</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="G66" s="11"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="8"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="5">
         <v>1.45</v>
       </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="9">
-        <f t="shared" si="9"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="6">
+        <f t="shared" si="10"/>
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="G67" s="11"/>
+      <c r="I67" s="11"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="8"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="5">
         <v>1.46</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="9">
-        <f t="shared" si="9"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="6">
+        <f t="shared" si="10"/>
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="G68" s="11"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="8"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="5">
         <v>1.46</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="9">
-        <f t="shared" si="9"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="6">
+        <f t="shared" si="10"/>
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="G69" s="11"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="8"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="5">
         <v>1.45</v>
       </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="9">
-        <f t="shared" si="9"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="6">
+        <f t="shared" si="10"/>
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="I70" s="8"/>
+      <c r="G70" s="11"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="8"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="5">
         <v>1.45</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="9">
-        <f t="shared" si="9"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="6">
+        <f t="shared" si="10"/>
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="G71" s="11"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="8"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="5">
         <v>1.45</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="9">
-        <f t="shared" si="9"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="6">
+        <f t="shared" si="10"/>
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="G72" s="11"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="8">
+      <c r="C73" s="11">
         <v>24</v>
       </c>
       <c r="D73" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="11">
         <f>(SUM(D73:D82))/10</f>
         <v>2.1949999999999994</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="6">
         <f>ABS(D73-$E$73)</f>
         <v>1.4999999999999236E-2</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="11">
         <f>SUM(F73:F82)/10</f>
         <v>7.0000000000003393E-3</v>
       </c>
-      <c r="I73" s="8">
-        <f t="shared" ref="I73:I102" si="10">G73+$H$1</f>
+      <c r="I73" s="11">
+        <f t="shared" ref="I73" si="11">G73+$H$1</f>
         <v>1.0000000000000338E-2</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="8"/>
+      <c r="C74" s="11"/>
       <c r="D74" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="9">
-        <f t="shared" ref="F74:F82" si="11">ABS(D74-$E$73)</f>
+      <c r="E74" s="11"/>
+      <c r="F74" s="6">
+        <f t="shared" ref="F74:F82" si="12">ABS(D74-$E$73)</f>
         <v>1.4999999999999236E-2</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="G74" s="11"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="8"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="5">
         <v>2.19</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="9">
-        <f t="shared" si="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="6">
+        <f t="shared" si="12"/>
         <v>4.9999999999994493E-3</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="G75" s="11"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="8"/>
+      <c r="C76" s="11"/>
       <c r="D76" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="9">
-        <f t="shared" si="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="6">
+        <f t="shared" si="12"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="G76" s="11"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="8"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="9">
-        <f t="shared" si="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="6">
+        <f t="shared" si="12"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="G77" s="11"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="8"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="9">
-        <f t="shared" si="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="6">
+        <f t="shared" si="12"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="I78" s="8"/>
+      <c r="G78" s="11"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="8"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="9">
-        <f t="shared" si="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="6">
+        <f t="shared" si="12"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="I79" s="8"/>
+      <c r="G79" s="11"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="8"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="9">
-        <f t="shared" si="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="6">
+        <f t="shared" si="12"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="I80" s="8"/>
+      <c r="G80" s="11"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="8"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="9">
-        <f t="shared" si="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="6">
+        <f t="shared" si="12"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="I81" s="8"/>
+      <c r="G81" s="11"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="8"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="9">
-        <f t="shared" si="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="6">
+        <f t="shared" si="12"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="I82" s="8"/>
+      <c r="G82" s="11"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="8">
+      <c r="C83" s="11">
         <v>27</v>
       </c>
       <c r="D83" s="5">
         <v>3.3</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="11">
         <f>(SUM(D83:D92))/10</f>
         <v>3.3090000000000002</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="6">
         <f>ABS(D83-$E$83)</f>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="11">
         <f>SUM(F83:F92)/10</f>
         <v>9.0000000000000305E-3</v>
       </c>
-      <c r="I83" s="8">
-        <f t="shared" ref="I83:I102" si="12">G83+$H$1</f>
+      <c r="I83" s="11">
+        <f t="shared" ref="I83" si="13">G83+$H$1</f>
         <v>1.2000000000000031E-2</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="8"/>
+      <c r="C84" s="11"/>
       <c r="D84" s="5">
         <v>3.32</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="9">
-        <f t="shared" ref="F84:F92" si="13">ABS(D84-$E$83)</f>
+      <c r="E84" s="11"/>
+      <c r="F84" s="6">
+        <f t="shared" ref="F84:F92" si="14">ABS(D84-$E$83)</f>
         <v>1.0999999999999677E-2</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="G84" s="11"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="8"/>
+      <c r="C85" s="11"/>
       <c r="D85" s="5">
         <v>3.31</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="9">
-        <f t="shared" si="13"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="6">
+        <f t="shared" si="14"/>
         <v>9.9999999999988987E-4</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="G85" s="11"/>
+      <c r="I85" s="11"/>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="8"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="5">
         <v>3.32</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="9">
-        <f t="shared" si="13"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="6">
+        <f t="shared" si="14"/>
         <v>1.0999999999999677E-2</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="G86" s="11"/>
+      <c r="I86" s="11"/>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="8"/>
+      <c r="C87" s="11"/>
       <c r="D87" s="5">
         <v>3.32</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="9">
-        <f t="shared" si="13"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="6">
+        <f t="shared" si="14"/>
         <v>1.0999999999999677E-2</v>
       </c>
-      <c r="G87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="G87" s="11"/>
+      <c r="I87" s="11"/>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="8"/>
+      <c r="C88" s="11"/>
       <c r="D88" s="5">
         <v>3.32</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="9">
-        <f t="shared" si="13"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="6">
+        <f t="shared" si="14"/>
         <v>1.0999999999999677E-2</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="I88" s="8"/>
+      <c r="G88" s="11"/>
+      <c r="I88" s="11"/>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="8"/>
+      <c r="C89" s="11"/>
       <c r="D89" s="5">
         <v>3.3</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9">
-        <f t="shared" si="13"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="6">
+        <f t="shared" si="14"/>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="G89" s="8"/>
-      <c r="I89" s="8"/>
+      <c r="G89" s="11"/>
+      <c r="I89" s="11"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="8"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="5">
         <v>3.3</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="9">
-        <f t="shared" si="13"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="6">
+        <f t="shared" si="14"/>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="G90" s="11"/>
+      <c r="I90" s="11"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="8"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="5">
         <v>3.3</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="9">
-        <f t="shared" si="13"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="6">
+        <f t="shared" si="14"/>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="G91" s="11"/>
+      <c r="I91" s="11"/>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="8"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="5">
         <v>3.3</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="9">
-        <f t="shared" si="13"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="6">
+        <f t="shared" si="14"/>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="G92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="G92" s="11"/>
+      <c r="I92" s="11"/>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="8">
+      <c r="C93" s="11">
         <v>30</v>
       </c>
       <c r="D93" s="5">
         <v>4.97</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="11">
         <f>(SUM(D93:D102))/10</f>
         <v>4.9689999999999994</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="6">
         <f>ABS(D93-$E$93)</f>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="11">
         <f>SUM(F93:F102)/10</f>
         <v>3.6000000000002254E-3</v>
       </c>
-      <c r="I93" s="8">
-        <f t="shared" ref="I93:I102" si="14">G93+$H$1</f>
+      <c r="I93" s="11">
+        <f t="shared" ref="I93" si="15">G93+$H$1</f>
         <v>6.6000000000002255E-3</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="8"/>
+      <c r="C94" s="11"/>
       <c r="D94" s="5">
         <v>4.97</v>
       </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="9">
-        <f t="shared" ref="F94:F102" si="15">ABS(D94-$E$93)</f>
+      <c r="E94" s="11"/>
+      <c r="F94" s="6">
+        <f t="shared" ref="F94:F102" si="16">ABS(D94-$E$93)</f>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="I94" s="8"/>
+      <c r="G94" s="11"/>
+      <c r="I94" s="11"/>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="8"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="5">
         <v>4.97</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="9">
-        <f t="shared" si="15"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="6">
+        <f t="shared" si="16"/>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="I95" s="8"/>
+      <c r="G95" s="11"/>
+      <c r="I95" s="11"/>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="8"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="5">
         <v>4.9800000000000004</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="9">
-        <f t="shared" si="15"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="6">
+        <f t="shared" si="16"/>
         <v>1.1000000000001009E-2</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="I96" s="8"/>
+      <c r="G96" s="11"/>
+      <c r="I96" s="11"/>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C97" s="8"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="5">
         <v>4.97</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="9">
-        <f t="shared" si="15"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="6">
+        <f t="shared" si="16"/>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="G97" s="11"/>
+      <c r="I97" s="11"/>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C98" s="8"/>
+      <c r="C98" s="11"/>
       <c r="D98" s="5">
         <v>4.96</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="9">
-        <f t="shared" si="15"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="6">
+        <f t="shared" si="16"/>
         <v>8.9999999999994529E-3</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="G98" s="11"/>
+      <c r="I98" s="11"/>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C99" s="8"/>
+      <c r="C99" s="11"/>
       <c r="D99" s="5">
         <v>4.96</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="9">
-        <f t="shared" si="15"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="6">
+        <f t="shared" si="16"/>
         <v>8.9999999999994529E-3</v>
       </c>
-      <c r="G99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="G99" s="11"/>
+      <c r="I99" s="11"/>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C100" s="8"/>
+      <c r="C100" s="11"/>
       <c r="D100" s="5">
         <v>4.97</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="9">
-        <f t="shared" si="15"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="6">
+        <f t="shared" si="16"/>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="G100" s="11"/>
+      <c r="I100" s="11"/>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C101" s="8"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="5">
         <v>4.97</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="9">
-        <f t="shared" si="15"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="6">
+        <f t="shared" si="16"/>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="I101" s="8"/>
+      <c r="G101" s="11"/>
+      <c r="I101" s="11"/>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C102" s="8"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="5">
         <v>4.97</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="9">
-        <f t="shared" si="15"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="6">
+        <f t="shared" si="16"/>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="I102" s="8"/>
+      <c r="G102" s="11"/>
+      <c r="I102" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I53:I62"/>
-    <mergeCell ref="I63:I72"/>
-    <mergeCell ref="I73:I82"/>
-    <mergeCell ref="I83:I92"/>
-    <mergeCell ref="I93:I102"/>
-    <mergeCell ref="I3:I12"/>
-    <mergeCell ref="I13:I22"/>
-    <mergeCell ref="I23:I32"/>
-    <mergeCell ref="I33:I42"/>
-    <mergeCell ref="I43:I52"/>
-    <mergeCell ref="G53:G62"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="G93:G102"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="G23:G32"/>
-    <mergeCell ref="G33:G42"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="E53:E62"/>
-    <mergeCell ref="E63:E72"/>
-    <mergeCell ref="E73:E82"/>
-    <mergeCell ref="E83:E92"/>
-    <mergeCell ref="E93:E102"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E22"/>
-    <mergeCell ref="E23:E32"/>
-    <mergeCell ref="E33:E42"/>
-    <mergeCell ref="E43:E52"/>
     <mergeCell ref="C63:C72"/>
     <mergeCell ref="C73:C82"/>
     <mergeCell ref="C83:C92"/>
@@ -11515,6 +12320,36 @@
     <mergeCell ref="C33:C42"/>
     <mergeCell ref="C43:C52"/>
     <mergeCell ref="C53:C62"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="E23:E32"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="E53:E62"/>
+    <mergeCell ref="E63:E72"/>
+    <mergeCell ref="E73:E82"/>
+    <mergeCell ref="E83:E92"/>
+    <mergeCell ref="E93:E102"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="I13:I22"/>
+    <mergeCell ref="I23:I32"/>
+    <mergeCell ref="I33:I42"/>
+    <mergeCell ref="I43:I52"/>
+    <mergeCell ref="I53:I62"/>
+    <mergeCell ref="I63:I72"/>
+    <mergeCell ref="I73:I82"/>
+    <mergeCell ref="I83:I92"/>
+    <mergeCell ref="I93:I102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11545,7 +12380,7 @@
       </c>
     </row>
     <row r="3" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J3" s="8">
+      <c r="J3" s="11">
         <v>3</v>
       </c>
       <c r="K3" s="5">
@@ -11553,67 +12388,67 @@
       </c>
     </row>
     <row r="4" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J4" s="8"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="5">
         <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J5" s="8"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J6" s="8"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="5">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J7" s="8"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="5">
         <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J8" s="8"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J9" s="8"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J10" s="8"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="5">
         <v>0.11</v>
       </c>
     </row>
     <row r="11" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J11" s="8"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="5">
         <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J12" s="8"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="5">
         <v>0.09</v>
       </c>
     </row>
     <row r="13" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J13" s="8"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J15" s="8">
+      <c r="J15" s="11">
         <v>6</v>
       </c>
       <c r="K15" s="5">
@@ -11621,61 +12456,61 @@
       </c>
     </row>
     <row r="16" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J16" s="8"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="5">
         <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="8"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="5">
         <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="8"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="5">
         <v>0.17</v>
       </c>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="8"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="5">
         <v>0.17</v>
       </c>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="8"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="5">
         <v>0.16</v>
       </c>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J21" s="8"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="5">
         <v>0.16</v>
       </c>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="8"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="5">
         <v>0.15</v>
       </c>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J23" s="8"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="5">
         <v>0.17</v>
       </c>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="8"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="5">
         <v>0.16</v>
       </c>
     </row>
     <row r="26" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J26" s="8">
+      <c r="J26" s="11">
         <v>9</v>
       </c>
       <c r="K26" s="5">
@@ -11683,61 +12518,61 @@
       </c>
     </row>
     <row r="27" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="8"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="5">
         <v>0.24</v>
       </c>
     </row>
     <row r="28" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J28" s="8"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="5">
         <v>0.23</v>
       </c>
     </row>
     <row r="29" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="8"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="5">
         <v>0.24</v>
       </c>
     </row>
     <row r="30" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J30" s="8"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="5">
         <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J31" s="8"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="5">
         <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="8"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="5">
         <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J33" s="8"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="5">
         <v>0.24</v>
       </c>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J34" s="8"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="5">
         <v>0.24</v>
       </c>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J35" s="8"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="5">
         <v>0.24</v>
       </c>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J37" s="8">
+      <c r="J37" s="11">
         <v>12</v>
       </c>
       <c r="K37" s="5">
@@ -11745,61 +12580,61 @@
       </c>
     </row>
     <row r="38" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J38" s="8"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="5">
         <v>0.38</v>
       </c>
     </row>
     <row r="39" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J39" s="8"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="5">
         <v>0.38</v>
       </c>
     </row>
     <row r="40" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="8"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="5">
         <v>0.39</v>
       </c>
     </row>
     <row r="41" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="8"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="5">
         <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="8"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="5">
         <v>0.39</v>
       </c>
     </row>
     <row r="43" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="8"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="5">
         <v>0.39</v>
       </c>
     </row>
     <row r="44" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="8"/>
+      <c r="J44" s="11"/>
       <c r="K44" s="5">
         <v>0.38</v>
       </c>
     </row>
     <row r="45" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="8"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="5">
         <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J46" s="8"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="5">
         <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J48" s="8">
+      <c r="J48" s="11">
         <v>15</v>
       </c>
       <c r="K48" s="5">
@@ -11807,67 +12642,67 @@
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="8"/>
+      <c r="J49" s="11"/>
       <c r="K49" s="5">
         <v>0.61</v>
       </c>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="8"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="5">
         <v>0.62</v>
       </c>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="8"/>
+      <c r="J51" s="11"/>
       <c r="K51" s="5">
         <v>212</v>
       </c>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="8"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="5">
         <v>0.62</v>
       </c>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="8"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="5">
         <v>0.62</v>
       </c>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="8"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="5">
         <v>0.62</v>
       </c>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="8"/>
+      <c r="J55" s="11"/>
       <c r="K55" s="5">
         <v>0.62</v>
       </c>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="8"/>
+      <c r="J56" s="11"/>
       <c r="K56" s="5">
         <v>0.6</v>
       </c>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="8"/>
+      <c r="J57" s="11"/>
       <c r="K57" s="5">
         <v>0.61</v>
       </c>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="8"/>
+      <c r="J58" s="11"/>
       <c r="K58" s="5">
         <v>0.61</v>
       </c>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="8">
+      <c r="J60" s="11">
         <v>18</v>
       </c>
       <c r="K60" s="5">
@@ -11875,61 +12710,61 @@
       </c>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="8"/>
+      <c r="J61" s="11"/>
       <c r="K61" s="5">
         <v>0.94</v>
       </c>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="8"/>
+      <c r="J62" s="11"/>
       <c r="K62" s="5">
         <v>0.94</v>
       </c>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="8"/>
+      <c r="J63" s="11"/>
       <c r="K63" s="5">
         <v>0.94</v>
       </c>
     </row>
     <row r="64" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J64" s="8"/>
+      <c r="J64" s="11"/>
       <c r="K64" s="5">
         <v>0.95</v>
       </c>
     </row>
     <row r="65" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J65" s="8"/>
+      <c r="J65" s="11"/>
       <c r="K65" s="5">
         <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J66" s="8"/>
+      <c r="J66" s="11"/>
       <c r="K66" s="5">
         <v>0.95</v>
       </c>
     </row>
     <row r="67" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J67" s="8"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="5">
         <v>0.93</v>
       </c>
     </row>
     <row r="68" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J68" s="8"/>
+      <c r="J68" s="11"/>
       <c r="K68" s="5">
         <v>0.94</v>
       </c>
     </row>
     <row r="69" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J69" s="8"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="5">
         <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J71" s="8">
+      <c r="J71" s="11">
         <v>21</v>
       </c>
       <c r="K71" s="5">
@@ -11937,61 +12772,61 @@
       </c>
     </row>
     <row r="72" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J72" s="8"/>
+      <c r="J72" s="11"/>
       <c r="K72" s="5">
         <v>1.43</v>
       </c>
     </row>
     <row r="73" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J73" s="8"/>
+      <c r="J73" s="11"/>
       <c r="K73" s="5">
         <v>1.43</v>
       </c>
     </row>
     <row r="74" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J74" s="8"/>
+      <c r="J74" s="11"/>
       <c r="K74" s="5">
         <v>1.44</v>
       </c>
     </row>
     <row r="75" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="8"/>
+      <c r="J75" s="11"/>
       <c r="K75" s="5">
         <v>1.45</v>
       </c>
     </row>
     <row r="76" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="8"/>
+      <c r="J76" s="11"/>
       <c r="K76" s="5">
         <v>1.46</v>
       </c>
     </row>
     <row r="77" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J77" s="8"/>
+      <c r="J77" s="11"/>
       <c r="K77" s="5">
         <v>1.46</v>
       </c>
     </row>
     <row r="78" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J78" s="8"/>
+      <c r="J78" s="11"/>
       <c r="K78" s="5">
         <v>1.45</v>
       </c>
     </row>
     <row r="79" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J79" s="8"/>
+      <c r="J79" s="11"/>
       <c r="K79" s="5">
         <v>1.45</v>
       </c>
     </row>
     <row r="80" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J80" s="8"/>
+      <c r="J80" s="11"/>
       <c r="K80" s="5">
         <v>1.45</v>
       </c>
     </row>
     <row r="82" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J82" s="8">
+      <c r="J82" s="11">
         <v>24</v>
       </c>
       <c r="K82" s="5">
@@ -11999,61 +12834,61 @@
       </c>
     </row>
     <row r="83" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J83" s="8"/>
+      <c r="J83" s="11"/>
       <c r="K83" s="5">
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="84" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J84" s="8"/>
+      <c r="J84" s="11"/>
       <c r="K84" s="5">
         <v>2.19</v>
       </c>
     </row>
     <row r="85" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J85" s="8"/>
+      <c r="J85" s="11"/>
       <c r="K85" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="86" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J86" s="8"/>
+      <c r="J86" s="11"/>
       <c r="K86" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="87" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J87" s="8"/>
+      <c r="J87" s="11"/>
       <c r="K87" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="88" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J88" s="8"/>
+      <c r="J88" s="11"/>
       <c r="K88" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="89" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J89" s="8"/>
+      <c r="J89" s="11"/>
       <c r="K89" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="90" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J90" s="8"/>
+      <c r="J90" s="11"/>
       <c r="K90" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="91" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J91" s="8"/>
+      <c r="J91" s="11"/>
       <c r="K91" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="93" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J93" s="8">
+      <c r="J93" s="11">
         <v>27</v>
       </c>
       <c r="K93" s="5">
@@ -12061,67 +12896,67 @@
       </c>
     </row>
     <row r="94" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J94" s="8"/>
+      <c r="J94" s="11"/>
       <c r="K94" s="5">
         <v>3.32</v>
       </c>
     </row>
     <row r="95" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J95" s="8"/>
+      <c r="J95" s="11"/>
       <c r="K95" s="5">
         <v>3.31</v>
       </c>
     </row>
     <row r="96" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J96" s="8"/>
+      <c r="J96" s="11"/>
       <c r="K96" s="5">
         <v>213</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J97" s="8"/>
+      <c r="J97" s="11"/>
       <c r="K97" s="5">
         <v>3.32</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J98" s="8"/>
+      <c r="J98" s="11"/>
       <c r="K98" s="5">
         <v>3.32</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J99" s="8"/>
+      <c r="J99" s="11"/>
       <c r="K99" s="5">
         <v>3.3</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J100" s="8"/>
+      <c r="J100" s="11"/>
       <c r="K100" s="5">
         <v>3.3</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J101" s="8"/>
+      <c r="J101" s="11"/>
       <c r="K101" s="5">
         <v>3.3</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J102" s="8"/>
+      <c r="J102" s="11"/>
       <c r="K102" s="5">
         <v>3.3</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J103" s="8"/>
+      <c r="J103" s="11"/>
       <c r="K103" s="5">
         <v>3.3</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J105" s="8">
+      <c r="J105" s="11">
         <v>30</v>
       </c>
       <c r="K105" s="5">
@@ -12129,55 +12964,55 @@
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J106" s="8"/>
+      <c r="J106" s="11"/>
       <c r="K106" s="5">
         <v>4.97</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J107" s="8"/>
+      <c r="J107" s="11"/>
       <c r="K107" s="5">
         <v>4.97</v>
       </c>
     </row>
     <row r="108" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J108" s="8"/>
+      <c r="J108" s="11"/>
       <c r="K108" s="5">
         <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="109" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J109" s="8"/>
+      <c r="J109" s="11"/>
       <c r="K109" s="5">
         <v>4.97</v>
       </c>
     </row>
     <row r="110" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J110" s="8"/>
+      <c r="J110" s="11"/>
       <c r="K110" s="5">
         <v>4.96</v>
       </c>
     </row>
     <row r="111" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J111" s="8"/>
+      <c r="J111" s="11"/>
       <c r="K111" s="5">
         <v>4.96</v>
       </c>
     </row>
     <row r="112" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J112" s="8"/>
+      <c r="J112" s="11"/>
       <c r="K112" s="5">
         <v>4.97</v>
       </c>
     </row>
     <row r="113" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J113" s="8"/>
+      <c r="J113" s="11"/>
       <c r="K113" s="5">
         <v>4.97</v>
       </c>
     </row>
     <row r="114" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J114" s="8"/>
+      <c r="J114" s="11"/>
       <c r="K114" s="5">
         <v>4.97</v>
       </c>

--- a/Dissertacia/MyWork/DocWork/Data.xlsx
+++ b/Dissertacia/MyWork/DocWork/Data.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MyWorks\trunk\Dissertacia\MyWork\DocWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasilii\Documents\MyWorks\trunk\Dissertacia\MyWork\DocWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BF3AFD-9BC3-4ECF-BC5C-FC065EFB4ACD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -88,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -176,7 +183,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -215,7 +222,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -360,7 +366,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7E30-4F36-A866-B0C4EC379E13}"/>
             </c:ext>
@@ -466,7 +472,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7E30-4F36-A866-B0C4EC379E13}"/>
             </c:ext>
@@ -531,7 +537,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -654,7 +659,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -771,7 +775,1037 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11034356179426613"/>
+          <c:y val="6.0109210550030559E-2"/>
+          <c:w val="0.86344137699941448"/>
+          <c:h val="0.80216700009620845"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Эксперимент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="sq">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A93D-490C-8187-F462E368657C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Модель </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:bevel/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="55000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$64:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$64:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6592785075420499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.146371140301682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32933506567877602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58548456120672798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91481962688549701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3173402627151101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.79304646869567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3419382448269102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9640155911088701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6592785075419898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A93D-490C-8187-F462E368657C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Модель2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$N$4:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.52811953478971E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26112478139158901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58753075813107403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0444991255663501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6320298836974301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3501230325243001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1987785720469701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1779965022654197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.28777682317968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5281195347897096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A93D-490C-8187-F462E368657C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Модель2_2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="98500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$O$4:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.6577035968177702E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.226308143872711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50919332371360204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90523257549084202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4144258992044301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0367732948544099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7722747624406798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6209303019633698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5827399134223903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6577035968177398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A93D-490C-8187-F462E368657C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Модель2_3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="30000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$P$4:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.7872876588457902E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.191491506353831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43085588929612001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76596602541532599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1968219147114501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.72342355718448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3457709528344499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0638641016613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8777030036651201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7872876588458002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A93D-490C-8187-F462E368657C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Модель2_4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$Q$4:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.3520796898598398E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17408318759439401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39168717208738302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69633275037757403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08801992246496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5667486883495301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1325190480313099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7853310015103001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5251845487864499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3520796898598304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A93D-490C-8187-F462E368657C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297154872"/>
+        <c:axId val="297155264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297154872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Скорость, мм/с</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297155264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297155264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Смещение, мм</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297154872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -927,6 +1961,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-307B-48E1-ABD6-C6C25BF8AFC2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1109,7 +2148,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1148,7 +2187,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1308,7 +2346,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-911F-4C4E-8EC9-C01EF7D216F7}"/>
             </c:ext>
@@ -1428,7 +2466,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-911F-4C4E-8EC9-C01EF7D216F7}"/>
             </c:ext>
@@ -1548,7 +2586,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-911F-4C4E-8EC9-C01EF7D216F7}"/>
             </c:ext>
@@ -1609,7 +2647,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1724,7 +2761,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1805,7 +2841,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1872,7 +2907,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1911,7 +2946,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2061,7 +3095,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D6BD-409D-9034-88FAE166C881}"/>
             </c:ext>
@@ -2180,7 +3214,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D6BD-409D-9034-88FAE166C881}"/>
             </c:ext>
@@ -2300,7 +3334,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D6BD-409D-9034-88FAE166C881}"/>
             </c:ext>
@@ -2361,7 +3395,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2476,7 +3509,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2557,7 +3589,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2624,7 +3655,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2663,7 +3694,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2817,7 +3847,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3613-46D3-9E4D-A8350ACFFD61}"/>
             </c:ext>
@@ -2936,7 +3966,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3613-46D3-9E4D-A8350ACFFD61}"/>
             </c:ext>
@@ -2997,7 +4027,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3111,7 +4140,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3189,7 +4217,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3256,7 +4283,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3482,7 +4509,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B867-47A6-A156-8991270A7DB0}"/>
             </c:ext>
@@ -3561,7 +4588,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3698,7 +4724,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3815,7 +4840,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3835,8 +4860,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.6256464698788515E-2"/>
-          <c:y val="3.97312198618558E-2"/>
+          <c:x val="3.625649115483532E-2"/>
+          <c:y val="3.9731137244531763E-2"/>
           <c:w val="0.94805808454157614"/>
           <c:h val="0.91507881915373279"/>
         </c:manualLayout>
@@ -3951,7 +4976,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3F2B-4F19-999E-04AAB2191045}"/>
             </c:ext>
@@ -4064,7 +5089,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3F2B-4F19-999E-04AAB2191045}"/>
             </c:ext>
@@ -4207,7 +5232,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -4251,7 +5276,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4394,7 +5419,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-911F-4C4E-8EC9-C01EF7D216F7}"/>
             </c:ext>
@@ -4514,7 +5539,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-911F-4C4E-8EC9-C01EF7D216F7}"/>
             </c:ext>
@@ -4634,7 +5659,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-911F-4C4E-8EC9-C01EF7D216F7}"/>
             </c:ext>
@@ -4817,7 +5842,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4933,7 +5957,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5066,7 +6090,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3613-46D3-9E4D-A8350ACFFD61}"/>
             </c:ext>
@@ -5185,7 +6209,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3613-46D3-9E4D-A8350ACFFD61}"/>
             </c:ext>
@@ -5246,7 +6270,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5358,7 +6381,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5471,7 +6493,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5604,7 +6626,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D6BD-409D-9034-88FAE166C881}"/>
             </c:ext>
@@ -5723,7 +6745,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D6BD-409D-9034-88FAE166C881}"/>
             </c:ext>
@@ -5843,7 +6865,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D6BD-409D-9034-88FAE166C881}"/>
             </c:ext>
@@ -5904,7 +6926,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6019,7 +7040,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6175,6 +7195,33 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7488,6 +8535,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11633,7 +13196,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11663,7 +13232,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11695,7 +13270,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11727,7 +13308,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11759,7 +13346,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11778,20 +13371,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>537881</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>891988</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>565095</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>170809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>38420</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>343381</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11821,7 +13420,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvPr id="12" name="Диаграмма 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11853,7 +13458,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Диаграмма 12"/>
+        <xdr:cNvPr id="13" name="Диаграмма 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11885,7 +13496,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvPr id="14" name="Диаграмма 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11897,6 +13514,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292553</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>816430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>595113</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129364</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BC8265-1019-4403-AD04-F49A92F1E41E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13554,6 +15209,169 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84215</cdr:x>
+      <cdr:y>0.19934</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92061</cdr:x>
+      <cdr:y>0.28578</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4352562" y="689969"/>
+          <a:ext cx="405542" cy="299176"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>–</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84198</cdr:x>
+      <cdr:y>0.33432</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92045</cdr:x>
+      <cdr:y>0.42076</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4351705" y="1157166"/>
+          <a:ext cx="405542" cy="299176"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>–</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13570,7 +15388,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13850,11 +15674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y71" sqref="Y71"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -13867,7 +15691,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F2" s="1">
         <v>1500</v>
       </c>
@@ -13875,7 +15699,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="2:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -13893,7 +15717,7 @@
       </c>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -13924,8 +15748,23 @@
       <c r="L4" s="1">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <v>6.52811953478971E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.6577035968177702E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4.7872876588457902E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4.3520796898598398E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3.91687172087384E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -13942,8 +15781,23 @@
       <c r="L5" s="1">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N5" s="1">
+        <v>0.26112478139158901</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.226308143872711</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.191491506353831</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.17408318759439401</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.15667486883495399</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -13968,8 +15822,23 @@
       <c r="L6" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N6" s="1">
+        <v>0.58753075813107403</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.50919332371360204</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.43085588929612001</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.39168717208738302</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.35251845487864297</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -13985,8 +15854,23 @@
       <c r="L7" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N7" s="1">
+        <v>1.0444991255663501</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.90523257549084202</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.76596602541532599</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.69633275037757403</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.62669947533981396</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -14011,8 +15895,23 @@
       <c r="L8" s="1">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N8" s="1">
+        <v>1.6320298836974301</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1.4144258992044301</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.1968219147114501</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.08801992246496</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.97921793021846304</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -14028,8 +15927,23 @@
       <c r="L9" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N9" s="1">
+        <v>2.3501230325243001</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2.0367732948544099</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.72342355718448</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1.5667486883495301</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.4100738195145699</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -14054,8 +15968,23 @@
       <c r="L10" s="1">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="1">
+        <v>3.1987785720469701</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.7722747624406798</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.3457709528344499</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2.1325190480313099</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1.91926714322819</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -14080,8 +16009,23 @@
       <c r="L11" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N11" s="1">
+        <v>4.1779965022654197</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.6209303019633698</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3.0638641016613</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2.7853310015103001</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2.5067979013592598</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -14106,8 +16050,23 @@
       <c r="L12" s="1">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N12" s="1">
+        <v>5.28777682317968</v>
+      </c>
+      <c r="O12" s="1">
+        <v>4.5827399134223903</v>
+      </c>
+      <c r="P12" s="1">
+        <v>3.8777030036651201</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>3.5251845487864499</v>
+      </c>
+      <c r="R12" s="1">
+        <v>3.1726660939078202</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -14131,6 +16090,21 @@
       </c>
       <c r="L13" s="1">
         <v>4.9800000000000004</v>
+      </c>
+      <c r="N13" s="1">
+        <v>6.5281195347897096</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5.6577035968177398</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4.7872876588458002</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>4.3520796898598304</v>
+      </c>
+      <c r="R13" s="1">
+        <v>3.9168717208738499</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
@@ -15166,7 +17140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:I102"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -16624,36 +18598,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I53:I62"/>
-    <mergeCell ref="I63:I72"/>
-    <mergeCell ref="I73:I82"/>
-    <mergeCell ref="I83:I92"/>
-    <mergeCell ref="I93:I102"/>
-    <mergeCell ref="I3:I12"/>
-    <mergeCell ref="I13:I22"/>
-    <mergeCell ref="I23:I32"/>
-    <mergeCell ref="I33:I42"/>
-    <mergeCell ref="I43:I52"/>
-    <mergeCell ref="G53:G62"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="G93:G102"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="G23:G32"/>
-    <mergeCell ref="G33:G42"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="E53:E62"/>
-    <mergeCell ref="E63:E72"/>
-    <mergeCell ref="E73:E82"/>
-    <mergeCell ref="E83:E92"/>
-    <mergeCell ref="E93:E102"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E22"/>
-    <mergeCell ref="E23:E32"/>
-    <mergeCell ref="E33:E42"/>
-    <mergeCell ref="E43:E52"/>
     <mergeCell ref="C63:C72"/>
     <mergeCell ref="C73:C82"/>
     <mergeCell ref="C83:C92"/>
@@ -16664,6 +18608,36 @@
     <mergeCell ref="C33:C42"/>
     <mergeCell ref="C43:C52"/>
     <mergeCell ref="C53:C62"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="E23:E32"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="E53:E62"/>
+    <mergeCell ref="E63:E72"/>
+    <mergeCell ref="E73:E82"/>
+    <mergeCell ref="E83:E92"/>
+    <mergeCell ref="E93:E102"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="I13:I22"/>
+    <mergeCell ref="I23:I32"/>
+    <mergeCell ref="I33:I42"/>
+    <mergeCell ref="I43:I52"/>
+    <mergeCell ref="I53:I62"/>
+    <mergeCell ref="I63:I72"/>
+    <mergeCell ref="I73:I82"/>
+    <mergeCell ref="I83:I92"/>
+    <mergeCell ref="I93:I102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16672,7 +18646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="J2:K114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
